--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.814340061658299</v>
+        <v>3.814340061658015</v>
       </c>
       <c r="C2">
-        <v>2.496695707828451</v>
+        <v>2.496695707828053</v>
       </c>
       <c r="D2">
-        <v>0.2570782484857688</v>
+        <v>0.2570782484853424</v>
       </c>
       <c r="E2">
-        <v>0.1258786816538802</v>
+        <v>0.1258786816539477</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.703592940810665</v>
+        <v>9.703592940810722</v>
       </c>
       <c r="I2">
-        <v>0.01928434868966988</v>
+        <v>0.01928434868970186</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5866454745767768</v>
+        <v>0.5866454745768124</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.215441966231424</v>
+        <v>3.215441966231367</v>
       </c>
       <c r="C3">
-        <v>2.121304915363055</v>
+        <v>2.121304915364192</v>
       </c>
       <c r="D3">
-        <v>0.2201407837565341</v>
+        <v>0.2201407837569462</v>
       </c>
       <c r="E3">
-        <v>0.1077677607392253</v>
+        <v>0.1077677607392751</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.410553482816795</v>
+        <v>8.410553482816738</v>
       </c>
       <c r="I3">
-        <v>0.01650598040766305</v>
+        <v>0.01650598040769502</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4997090423341817</v>
+        <v>0.4997090423342527</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.867901431234827</v>
+        <v>2.867901431234543</v>
       </c>
       <c r="C4">
-        <v>1.900948090370548</v>
+        <v>1.900948090370605</v>
       </c>
       <c r="D4">
-        <v>0.1984860316995309</v>
+        <v>0.1984860316994457</v>
       </c>
       <c r="E4">
-        <v>0.097165175880086</v>
+        <v>0.09716517588012152</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.646638561658534</v>
+        <v>7.646638561658591</v>
       </c>
       <c r="I4">
-        <v>0.0148822372770816</v>
+        <v>0.01488223727704074</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.44873084660302</v>
+        <v>0.4487308466030342</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.730436339942116</v>
+        <v>2.730436339941889</v>
       </c>
       <c r="C5">
-        <v>1.813227646992459</v>
+        <v>1.813227646992971</v>
       </c>
       <c r="D5">
-        <v>0.1898735213774501</v>
+        <v>0.189873521377308</v>
       </c>
       <c r="E5">
-        <v>0.09295154211988077</v>
+        <v>0.09295154211987011</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.341454648810014</v>
+        <v>7.341454648809872</v>
       </c>
       <c r="I5">
-        <v>0.0142375315175034</v>
+        <v>0.01423753151756024</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4284506640664674</v>
+        <v>0.4284506640664247</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.707838062261544</v>
+        <v>2.707838062261317</v>
       </c>
       <c r="C6">
-        <v>1.7987749712359</v>
+        <v>1.798774971235616</v>
       </c>
       <c r="D6">
-        <v>0.1884550385233581</v>
+        <v>0.1884550385235713</v>
       </c>
       <c r="E6">
-        <v>0.09225773543252558</v>
+        <v>0.09225773543244387</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.29111142032923</v>
+        <v>7.291111420328946</v>
       </c>
       <c r="I6">
-        <v>0.01413140910907984</v>
+        <v>0.01413140910907629</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4251101392822818</v>
+        <v>0.4251101392822676</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.866031769777578</v>
+        <v>2.866031769778147</v>
       </c>
       <c r="C7">
-        <v>1.899757214532031</v>
+        <v>1.899757214533111</v>
       </c>
       <c r="D7">
-        <v>0.1983690766336252</v>
+        <v>0.1983690766328436</v>
       </c>
       <c r="E7">
-        <v>0.09710794365061304</v>
+        <v>0.09710794365066633</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.642499684418738</v>
+        <v>7.642499684418567</v>
       </c>
       <c r="I7">
-        <v>0.01487347817161222</v>
+        <v>0.01487347817159979</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4484554722975176</v>
+        <v>0.4484554722974963</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.603041037189712</v>
+        <v>3.603041037189996</v>
       </c>
       <c r="C8">
-        <v>2.364844125050297</v>
+        <v>2.364844125050752</v>
       </c>
       <c r="D8">
-        <v>0.2440990992023302</v>
+        <v>0.2440990992017191</v>
       </c>
       <c r="E8">
-        <v>0.1195112400132778</v>
+        <v>0.1195112400132707</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.250576349399694</v>
+        <v>9.250576349399836</v>
       </c>
       <c r="I8">
-        <v>0.01830686206519516</v>
+        <v>0.01830686206518273</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5560984167442129</v>
+        <v>0.5560984167442413</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.262104805257593</v>
+        <v>5.262104805257025</v>
       </c>
       <c r="C9">
-        <v>3.384766829936495</v>
+        <v>3.384766829934335</v>
       </c>
       <c r="D9">
-        <v>0.3445655569789068</v>
+        <v>0.3445655569785799</v>
       </c>
       <c r="E9">
-        <v>0.168896779786003</v>
+        <v>0.1688967797859462</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.72463079357331</v>
+        <v>12.72463079357334</v>
       </c>
       <c r="I9">
-        <v>0.02590639997609046</v>
+        <v>0.0259063999760798</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7926363562417862</v>
+        <v>0.7926363562417436</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.716308852310249</v>
+        <v>6.716308852310704</v>
       </c>
       <c r="C10">
-        <v>4.253267028569894</v>
+        <v>4.253267028571258</v>
       </c>
       <c r="D10">
-        <v>0.4300966533654673</v>
+        <v>0.4300966533647284</v>
       </c>
       <c r="E10">
-        <v>0.2111135422511765</v>
+        <v>0.2111135422512191</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>15.63061451604426</v>
       </c>
       <c r="I10">
-        <v>0.0324351295335088</v>
+        <v>0.03243512953355854</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9943572894100186</v>
+        <v>0.9943572894099901</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.467035141756242</v>
+        <v>7.467035141756298</v>
       </c>
       <c r="C11">
-        <v>4.693454199680332</v>
+        <v>4.693454199679195</v>
       </c>
       <c r="D11">
-        <v>0.4733899086795361</v>
+        <v>0.4733899086800477</v>
       </c>
       <c r="E11">
-        <v>0.2325430111199154</v>
+        <v>0.2325430111200362</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.08534641137032</v>
+        <v>17.08534641137072</v>
       </c>
       <c r="I11">
-        <v>0.03576052256241447</v>
+        <v>0.03576052256236473</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.096654101741294</v>
+        <v>1.096654101741365</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.769294406577217</v>
+        <v>7.769294406577728</v>
       </c>
       <c r="C12">
-        <v>4.869209827639111</v>
+        <v>4.869209827640532</v>
       </c>
       <c r="D12">
-        <v>0.4906603595370598</v>
+        <v>0.4906603595366619</v>
       </c>
       <c r="E12">
-        <v>0.241103160822469</v>
+        <v>0.2411031608225116</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>17.66272841924439</v>
       </c>
       <c r="I12">
-        <v>0.03709104421750276</v>
+        <v>0.0370910442174992</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.13750511776891</v>
+        <v>1.137505117768825</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.703288042698148</v>
+        <v>7.703288042698262</v>
       </c>
       <c r="C13">
-        <v>4.830899526220605</v>
+        <v>4.830899526221287</v>
       </c>
       <c r="D13">
-        <v>0.48689667050607</v>
+        <v>0.486896670505331</v>
       </c>
       <c r="E13">
-        <v>0.2392371107994649</v>
+        <v>0.239237110799472</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.53704329718511</v>
+        <v>17.53704329718499</v>
       </c>
       <c r="I13">
-        <v>0.03680089377691687</v>
+        <v>0.03680089377693108</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.128600382155952</v>
+        <v>1.128600382155966</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.491503364607922</v>
+        <v>7.491503364608036</v>
       </c>
       <c r="C14">
-        <v>4.707712735696134</v>
+        <v>4.707712735696475</v>
       </c>
       <c r="D14">
-        <v>0.4747913667686703</v>
+        <v>0.4747913667678745</v>
       </c>
       <c r="E14">
-        <v>0.2332374006122109</v>
+        <v>0.2332374006122393</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.13226173017119</v>
+        <v>17.13226173017125</v>
       </c>
       <c r="I14">
-        <v>0.03586840648788936</v>
+        <v>0.035868406487916</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.364315221683796</v>
+        <v>7.364315221683057</v>
       </c>
       <c r="C15">
-        <v>4.633535548646876</v>
+        <v>4.63353554864608</v>
       </c>
       <c r="D15">
-        <v>0.4674998993525037</v>
+        <v>0.4674998993520489</v>
       </c>
       <c r="E15">
-        <v>0.2296251259441533</v>
+        <v>0.2296251259440538</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>16.88805184101602</v>
       </c>
       <c r="I15">
-        <v>0.03530727425448532</v>
+        <v>0.03530727425442137</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.08272787929765</v>
+        <v>1.082727879297735</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.66943003593002</v>
+        <v>6.669430035930304</v>
       </c>
       <c r="C16">
-        <v>4.225602076959944</v>
+        <v>4.225602076960001</v>
       </c>
       <c r="D16">
-        <v>0.4273741374829569</v>
+        <v>0.4273741374825306</v>
       </c>
       <c r="E16">
-        <v>0.2097673120368171</v>
+        <v>0.2097673120369237</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.53877771044489</v>
+        <v>15.53877771044506</v>
       </c>
       <c r="I16">
-        <v>0.03222648075118428</v>
+        <v>0.03222648075114698</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9879291052189387</v>
+        <v>0.9879291052188535</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.268972541200696</v>
+        <v>6.268972541200867</v>
       </c>
       <c r="C17">
-        <v>3.988399892622738</v>
+        <v>3.988399892624159</v>
       </c>
       <c r="D17">
-        <v>0.4040244643879163</v>
+        <v>0.4040244643882147</v>
       </c>
       <c r="E17">
-        <v>0.1982279750453273</v>
+        <v>0.1982279750452847</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.74938500967596</v>
+        <v>14.74938500967622</v>
       </c>
       <c r="I17">
-        <v>0.0304392675109284</v>
+        <v>0.03043926751096393</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9328191262241461</v>
+        <v>0.9328191262241887</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.046630288727897</v>
+        <v>6.046630288727044</v>
       </c>
       <c r="C18">
-        <v>3.856009750723274</v>
+        <v>3.856009750722194</v>
       </c>
       <c r="D18">
         <v>0.3909877750684672</v>
@@ -1041,13 +1041,13 @@
         <v>14.3072656482895</v>
       </c>
       <c r="I18">
-        <v>0.02944318059476458</v>
+        <v>0.02944318059481255</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.902065666561839</v>
+        <v>0.9020656665618532</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.972599857012654</v>
+        <v>5.972599857012824</v>
       </c>
       <c r="C19">
-        <v>3.811817893369152</v>
+        <v>3.811817893369039</v>
       </c>
       <c r="D19">
-        <v>0.3866355133169748</v>
+        <v>0.3866355133165627</v>
       </c>
       <c r="E19">
-        <v>0.1896420788236952</v>
+        <v>0.189642078823745</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.15944183451086</v>
+        <v>14.1594418345108</v>
       </c>
       <c r="I19">
-        <v>0.02911091931237841</v>
+        <v>0.02911091931235532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8918010790395812</v>
+        <v>0.8918010790395954</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.310744919500223</v>
+        <v>6.310744919500337</v>
       </c>
       <c r="C20">
-        <v>4.013217012557334</v>
+        <v>4.013217012557732</v>
       </c>
       <c r="D20">
-        <v>0.4064679179887918</v>
+        <v>0.4064679179891328</v>
       </c>
       <c r="E20">
-        <v>0.1994349684698093</v>
+        <v>0.1994349684697525</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.83214005792138</v>
+        <v>14.83214005792144</v>
       </c>
       <c r="I20">
-        <v>0.0306261029770134</v>
+        <v>0.03062610297708801</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.93858443660028</v>
+        <v>0.9385844366001663</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.553168115158371</v>
+        <v>7.553168115158485</v>
       </c>
       <c r="C21">
-        <v>4.743622783509352</v>
+        <v>4.743622783509011</v>
       </c>
       <c r="D21">
-        <v>0.4783206580818842</v>
+        <v>0.4783206580818273</v>
       </c>
       <c r="E21">
-        <v>0.2349862745047986</v>
+        <v>0.2349862745046778</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.25035992777248</v>
+        <v>17.25035992777265</v>
       </c>
       <c r="I21">
-        <v>0.03614015681626803</v>
+        <v>0.03614015681623073</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.474537343661098</v>
+        <v>8.474537343661382</v>
       </c>
       <c r="C22">
-        <v>5.276122332986574</v>
+        <v>5.276122332985096</v>
       </c>
       <c r="D22">
-        <v>0.5306048695960328</v>
+        <v>0.5306048695968286</v>
       </c>
       <c r="E22">
-        <v>0.260927449714238</v>
+        <v>0.2609274497142806</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.99179094799462</v>
+        <v>18.99179094799467</v>
       </c>
       <c r="I22">
-        <v>0.04017720468371699</v>
+        <v>0.0401772046836264</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.232092661927751</v>
+        <v>1.232092661927695</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.970316718616687</v>
+        <v>7.970316718617084</v>
       </c>
       <c r="C23">
         <v>4.985643274658401</v>
       </c>
       <c r="D23">
-        <v>0.5020960454490364</v>
+        <v>0.5020960454491217</v>
       </c>
       <c r="E23">
-        <v>0.2467749602414528</v>
+        <v>0.2467749602414386</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.04412973080906</v>
+        <v>18.04412973080883</v>
       </c>
       <c r="I23">
-        <v>0.03797331322473951</v>
+        <v>0.03797331322478037</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.164569281845559</v>
+        <v>1.164569281845544</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.291835413106867</v>
+        <v>6.291835413107151</v>
       </c>
       <c r="C24">
-        <v>4.001984969413456</v>
+        <v>4.001984969413002</v>
       </c>
       <c r="D24">
-        <v>0.4053620428262832</v>
+        <v>0.4053620428260984</v>
       </c>
       <c r="E24">
-        <v>0.198888683011063</v>
+        <v>0.1988886830110914</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.79469052248811</v>
+        <v>14.79469052248851</v>
       </c>
       <c r="I24">
-        <v>0.03054153821017991</v>
+        <v>0.03054153821007866</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.935975083725225</v>
+        <v>0.9359750837251823</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.781542255948978</v>
+        <v>4.781542255948864</v>
       </c>
       <c r="C25">
-        <v>3.092777978635013</v>
+        <v>3.092777978635638</v>
       </c>
       <c r="D25">
-        <v>0.3157949933836761</v>
+        <v>0.3157949933836335</v>
       </c>
       <c r="E25">
-        <v>0.1547316128828484</v>
+        <v>0.154731612882685</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.73698456190175</v>
+        <v>11.73698456190183</v>
       </c>
       <c r="I25">
-        <v>0.02372241953352727</v>
+        <v>0.02372241953354681</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7248691403734497</v>
+        <v>0.7248691403735705</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.814340061658015</v>
+        <v>3.814340061658299</v>
       </c>
       <c r="C2">
-        <v>2.496695707828053</v>
+        <v>2.496695707828451</v>
       </c>
       <c r="D2">
-        <v>0.2570782484853424</v>
+        <v>0.2570782484857688</v>
       </c>
       <c r="E2">
-        <v>0.1258786816539477</v>
+        <v>0.1258786816538802</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.703592940810722</v>
+        <v>9.703592940810665</v>
       </c>
       <c r="I2">
-        <v>0.01928434868970186</v>
+        <v>0.01928434868966988</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5866454745768124</v>
+        <v>0.5866454745767768</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.215441966231367</v>
+        <v>3.215441966231424</v>
       </c>
       <c r="C3">
-        <v>2.121304915364192</v>
+        <v>2.121304915363055</v>
       </c>
       <c r="D3">
-        <v>0.2201407837569462</v>
+        <v>0.2201407837565341</v>
       </c>
       <c r="E3">
-        <v>0.1077677607392751</v>
+        <v>0.1077677607392253</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.410553482816738</v>
+        <v>8.410553482816795</v>
       </c>
       <c r="I3">
-        <v>0.01650598040769502</v>
+        <v>0.01650598040766305</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4997090423342527</v>
+        <v>0.4997090423341817</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.867901431234543</v>
+        <v>2.867901431234827</v>
       </c>
       <c r="C4">
-        <v>1.900948090370605</v>
+        <v>1.900948090370548</v>
       </c>
       <c r="D4">
-        <v>0.1984860316994457</v>
+        <v>0.1984860316995309</v>
       </c>
       <c r="E4">
-        <v>0.09716517588012152</v>
+        <v>0.097165175880086</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.646638561658591</v>
+        <v>7.646638561658534</v>
       </c>
       <c r="I4">
-        <v>0.01488223727704074</v>
+        <v>0.0148822372770816</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4487308466030342</v>
+        <v>0.44873084660302</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.730436339941889</v>
+        <v>2.730436339942116</v>
       </c>
       <c r="C5">
-        <v>1.813227646992971</v>
+        <v>1.813227646992459</v>
       </c>
       <c r="D5">
-        <v>0.189873521377308</v>
+        <v>0.1898735213774501</v>
       </c>
       <c r="E5">
-        <v>0.09295154211987011</v>
+        <v>0.09295154211988077</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.341454648809872</v>
+        <v>7.341454648810014</v>
       </c>
       <c r="I5">
-        <v>0.01423753151756024</v>
+        <v>0.0142375315175034</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4284506640664247</v>
+        <v>0.4284506640664674</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.707838062261317</v>
+        <v>2.707838062261544</v>
       </c>
       <c r="C6">
-        <v>1.798774971235616</v>
+        <v>1.7987749712359</v>
       </c>
       <c r="D6">
-        <v>0.1884550385235713</v>
+        <v>0.1884550385233581</v>
       </c>
       <c r="E6">
-        <v>0.09225773543244387</v>
+        <v>0.09225773543252558</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.291111420328946</v>
+        <v>7.29111142032923</v>
       </c>
       <c r="I6">
-        <v>0.01413140910907629</v>
+        <v>0.01413140910907984</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4251101392822676</v>
+        <v>0.4251101392822818</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.866031769778147</v>
+        <v>2.866031769777578</v>
       </c>
       <c r="C7">
-        <v>1.899757214533111</v>
+        <v>1.899757214532031</v>
       </c>
       <c r="D7">
-        <v>0.1983690766328436</v>
+        <v>0.1983690766336252</v>
       </c>
       <c r="E7">
-        <v>0.09710794365066633</v>
+        <v>0.09710794365061304</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.642499684418567</v>
+        <v>7.642499684418738</v>
       </c>
       <c r="I7">
-        <v>0.01487347817159979</v>
+        <v>0.01487347817161222</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4484554722974963</v>
+        <v>0.4484554722975176</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.603041037189996</v>
+        <v>3.603041037189712</v>
       </c>
       <c r="C8">
-        <v>2.364844125050752</v>
+        <v>2.364844125050297</v>
       </c>
       <c r="D8">
-        <v>0.2440990992017191</v>
+        <v>0.2440990992023302</v>
       </c>
       <c r="E8">
-        <v>0.1195112400132707</v>
+        <v>0.1195112400132778</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.250576349399836</v>
+        <v>9.250576349399694</v>
       </c>
       <c r="I8">
-        <v>0.01830686206518273</v>
+        <v>0.01830686206519516</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5560984167442413</v>
+        <v>0.5560984167442129</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.262104805257025</v>
+        <v>5.262104805257593</v>
       </c>
       <c r="C9">
-        <v>3.384766829934335</v>
+        <v>3.384766829936495</v>
       </c>
       <c r="D9">
-        <v>0.3445655569785799</v>
+        <v>0.3445655569789068</v>
       </c>
       <c r="E9">
-        <v>0.1688967797859462</v>
+        <v>0.168896779786003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.72463079357334</v>
+        <v>12.72463079357331</v>
       </c>
       <c r="I9">
-        <v>0.0259063999760798</v>
+        <v>0.02590639997609046</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7926363562417436</v>
+        <v>0.7926363562417862</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.716308852310704</v>
+        <v>6.716308852310249</v>
       </c>
       <c r="C10">
-        <v>4.253267028571258</v>
+        <v>4.253267028569894</v>
       </c>
       <c r="D10">
-        <v>0.4300966533647284</v>
+        <v>0.4300966533654673</v>
       </c>
       <c r="E10">
-        <v>0.2111135422512191</v>
+        <v>0.2111135422511765</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>15.63061451604426</v>
       </c>
       <c r="I10">
-        <v>0.03243512953355854</v>
+        <v>0.0324351295335088</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9943572894099901</v>
+        <v>0.9943572894100186</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.467035141756298</v>
+        <v>7.467035141756242</v>
       </c>
       <c r="C11">
-        <v>4.693454199679195</v>
+        <v>4.693454199680332</v>
       </c>
       <c r="D11">
-        <v>0.4733899086800477</v>
+        <v>0.4733899086795361</v>
       </c>
       <c r="E11">
-        <v>0.2325430111200362</v>
+        <v>0.2325430111199154</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.08534641137072</v>
+        <v>17.08534641137032</v>
       </c>
       <c r="I11">
-        <v>0.03576052256236473</v>
+        <v>0.03576052256241447</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.096654101741365</v>
+        <v>1.096654101741294</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.769294406577728</v>
+        <v>7.769294406577217</v>
       </c>
       <c r="C12">
-        <v>4.869209827640532</v>
+        <v>4.869209827639111</v>
       </c>
       <c r="D12">
-        <v>0.4906603595366619</v>
+        <v>0.4906603595370598</v>
       </c>
       <c r="E12">
-        <v>0.2411031608225116</v>
+        <v>0.241103160822469</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>17.66272841924439</v>
       </c>
       <c r="I12">
-        <v>0.0370910442174992</v>
+        <v>0.03709104421750276</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.137505117768825</v>
+        <v>1.13750511776891</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.703288042698262</v>
+        <v>7.703288042698148</v>
       </c>
       <c r="C13">
-        <v>4.830899526221287</v>
+        <v>4.830899526220605</v>
       </c>
       <c r="D13">
-        <v>0.486896670505331</v>
+        <v>0.48689667050607</v>
       </c>
       <c r="E13">
-        <v>0.239237110799472</v>
+        <v>0.2392371107994649</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.53704329718499</v>
+        <v>17.53704329718511</v>
       </c>
       <c r="I13">
-        <v>0.03680089377693108</v>
+        <v>0.03680089377691687</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.128600382155966</v>
+        <v>1.128600382155952</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.491503364608036</v>
+        <v>7.491503364607922</v>
       </c>
       <c r="C14">
-        <v>4.707712735696475</v>
+        <v>4.707712735696134</v>
       </c>
       <c r="D14">
-        <v>0.4747913667678745</v>
+        <v>0.4747913667686703</v>
       </c>
       <c r="E14">
-        <v>0.2332374006122393</v>
+        <v>0.2332374006122109</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.13226173017125</v>
+        <v>17.13226173017119</v>
       </c>
       <c r="I14">
-        <v>0.035868406487916</v>
+        <v>0.03586840648788936</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.364315221683057</v>
+        <v>7.364315221683796</v>
       </c>
       <c r="C15">
-        <v>4.63353554864608</v>
+        <v>4.633535548646876</v>
       </c>
       <c r="D15">
-        <v>0.4674998993520489</v>
+        <v>0.4674998993525037</v>
       </c>
       <c r="E15">
-        <v>0.2296251259440538</v>
+        <v>0.2296251259441533</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>16.88805184101602</v>
       </c>
       <c r="I15">
-        <v>0.03530727425442137</v>
+        <v>0.03530727425448532</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.082727879297735</v>
+        <v>1.08272787929765</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.669430035930304</v>
+        <v>6.66943003593002</v>
       </c>
       <c r="C16">
-        <v>4.225602076960001</v>
+        <v>4.225602076959944</v>
       </c>
       <c r="D16">
-        <v>0.4273741374825306</v>
+        <v>0.4273741374829569</v>
       </c>
       <c r="E16">
-        <v>0.2097673120369237</v>
+        <v>0.2097673120368171</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.53877771044506</v>
+        <v>15.53877771044489</v>
       </c>
       <c r="I16">
-        <v>0.03222648075114698</v>
+        <v>0.03222648075118428</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9879291052188535</v>
+        <v>0.9879291052189387</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.268972541200867</v>
+        <v>6.268972541200696</v>
       </c>
       <c r="C17">
-        <v>3.988399892624159</v>
+        <v>3.988399892622738</v>
       </c>
       <c r="D17">
-        <v>0.4040244643882147</v>
+        <v>0.4040244643879163</v>
       </c>
       <c r="E17">
-        <v>0.1982279750452847</v>
+        <v>0.1982279750453273</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.74938500967622</v>
+        <v>14.74938500967596</v>
       </c>
       <c r="I17">
-        <v>0.03043926751096393</v>
+        <v>0.0304392675109284</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9328191262241887</v>
+        <v>0.9328191262241461</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.046630288727044</v>
+        <v>6.046630288727897</v>
       </c>
       <c r="C18">
-        <v>3.856009750722194</v>
+        <v>3.856009750723274</v>
       </c>
       <c r="D18">
         <v>0.3909877750684672</v>
@@ -1041,13 +1041,13 @@
         <v>14.3072656482895</v>
       </c>
       <c r="I18">
-        <v>0.02944318059481255</v>
+        <v>0.02944318059476458</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9020656665618532</v>
+        <v>0.902065666561839</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.972599857012824</v>
+        <v>5.972599857012654</v>
       </c>
       <c r="C19">
-        <v>3.811817893369039</v>
+        <v>3.811817893369152</v>
       </c>
       <c r="D19">
-        <v>0.3866355133165627</v>
+        <v>0.3866355133169748</v>
       </c>
       <c r="E19">
-        <v>0.189642078823745</v>
+        <v>0.1896420788236952</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.1594418345108</v>
+        <v>14.15944183451086</v>
       </c>
       <c r="I19">
-        <v>0.02911091931235532</v>
+        <v>0.02911091931237841</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8918010790395954</v>
+        <v>0.8918010790395812</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.310744919500337</v>
+        <v>6.310744919500223</v>
       </c>
       <c r="C20">
-        <v>4.013217012557732</v>
+        <v>4.013217012557334</v>
       </c>
       <c r="D20">
-        <v>0.4064679179891328</v>
+        <v>0.4064679179887918</v>
       </c>
       <c r="E20">
-        <v>0.1994349684697525</v>
+        <v>0.1994349684698093</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.83214005792144</v>
+        <v>14.83214005792138</v>
       </c>
       <c r="I20">
-        <v>0.03062610297708801</v>
+        <v>0.0306261029770134</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9385844366001663</v>
+        <v>0.93858443660028</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.553168115158485</v>
+        <v>7.553168115158371</v>
       </c>
       <c r="C21">
-        <v>4.743622783509011</v>
+        <v>4.743622783509352</v>
       </c>
       <c r="D21">
-        <v>0.4783206580818273</v>
+        <v>0.4783206580818842</v>
       </c>
       <c r="E21">
-        <v>0.2349862745046778</v>
+        <v>0.2349862745047986</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.25035992777265</v>
+        <v>17.25035992777248</v>
       </c>
       <c r="I21">
-        <v>0.03614015681623073</v>
+        <v>0.03614015681626803</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.474537343661382</v>
+        <v>8.474537343661098</v>
       </c>
       <c r="C22">
-        <v>5.276122332985096</v>
+        <v>5.276122332986574</v>
       </c>
       <c r="D22">
-        <v>0.5306048695968286</v>
+        <v>0.5306048695960328</v>
       </c>
       <c r="E22">
-        <v>0.2609274497142806</v>
+        <v>0.260927449714238</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.99179094799467</v>
+        <v>18.99179094799462</v>
       </c>
       <c r="I22">
-        <v>0.0401772046836264</v>
+        <v>0.04017720468371699</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.232092661927695</v>
+        <v>1.232092661927751</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.970316718617084</v>
+        <v>7.970316718616687</v>
       </c>
       <c r="C23">
         <v>4.985643274658401</v>
       </c>
       <c r="D23">
-        <v>0.5020960454491217</v>
+        <v>0.5020960454490364</v>
       </c>
       <c r="E23">
-        <v>0.2467749602414386</v>
+        <v>0.2467749602414528</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.04412973080883</v>
+        <v>18.04412973080906</v>
       </c>
       <c r="I23">
-        <v>0.03797331322478037</v>
+        <v>0.03797331322473951</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.164569281845544</v>
+        <v>1.164569281845559</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.291835413107151</v>
+        <v>6.291835413106867</v>
       </c>
       <c r="C24">
-        <v>4.001984969413002</v>
+        <v>4.001984969413456</v>
       </c>
       <c r="D24">
-        <v>0.4053620428260984</v>
+        <v>0.4053620428262832</v>
       </c>
       <c r="E24">
-        <v>0.1988886830110914</v>
+        <v>0.198888683011063</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.79469052248851</v>
+        <v>14.79469052248811</v>
       </c>
       <c r="I24">
-        <v>0.03054153821007866</v>
+        <v>0.03054153821017991</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9359750837251823</v>
+        <v>0.935975083725225</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.781542255948864</v>
+        <v>4.781542255948978</v>
       </c>
       <c r="C25">
-        <v>3.092777978635638</v>
+        <v>3.092777978635013</v>
       </c>
       <c r="D25">
-        <v>0.3157949933836335</v>
+        <v>0.3157949933836761</v>
       </c>
       <c r="E25">
-        <v>0.154731612882685</v>
+        <v>0.1547316128828484</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.73698456190183</v>
+        <v>11.73698456190175</v>
       </c>
       <c r="I25">
-        <v>0.02372241953354681</v>
+        <v>0.02372241953352727</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7248691403735705</v>
+        <v>0.7248691403734497</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.814340061658299</v>
+        <v>3.765464999356311</v>
       </c>
       <c r="C2">
-        <v>2.496695707828451</v>
+        <v>2.473515574261796</v>
       </c>
       <c r="D2">
-        <v>0.2570782484857688</v>
+        <v>0.2553527443428862</v>
       </c>
       <c r="E2">
-        <v>0.1258786816538802</v>
+        <v>0.1250044604058616</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007589860776597079</v>
       </c>
       <c r="H2">
-        <v>9.703592940810665</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01928434868966988</v>
+        <v>9.702709273838622</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01914351878340526</v>
       </c>
       <c r="K2">
-        <v>0.5866454745767768</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5825139460744069</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.215441966231424</v>
+        <v>3.177792230521959</v>
       </c>
       <c r="C3">
-        <v>2.121304915363055</v>
+        <v>2.104066430411876</v>
       </c>
       <c r="D3">
-        <v>0.2201407837565341</v>
+        <v>0.2187201326233463</v>
       </c>
       <c r="E3">
-        <v>0.1077677607392253</v>
+        <v>0.1069864722217666</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000777041830627212</v>
       </c>
       <c r="H3">
-        <v>8.410553482816795</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01650598040766305</v>
+        <v>8.420316458560819</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01636847855104762</v>
       </c>
       <c r="K3">
-        <v>0.4997090423341817</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4965824242782517</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.867901431234827</v>
+        <v>2.836859574578739</v>
       </c>
       <c r="C4">
-        <v>1.900948090370548</v>
+        <v>1.887200547547991</v>
       </c>
       <c r="D4">
-        <v>0.1984860316995309</v>
+        <v>0.1972356848676213</v>
       </c>
       <c r="E4">
-        <v>0.097165175880086</v>
+        <v>0.09643223928739175</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007881518786428348</v>
       </c>
       <c r="H4">
-        <v>7.646638561658534</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0148822372770816</v>
+        <v>7.662413969419845</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01474539393861107</v>
       </c>
       <c r="K4">
-        <v>0.44873084660302</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4461829250226188</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.730436339942116</v>
+        <v>2.702038572106176</v>
       </c>
       <c r="C5">
-        <v>1.813227646992459</v>
+        <v>1.800875022992614</v>
       </c>
       <c r="D5">
-        <v>0.1898735213774501</v>
+        <v>0.1886892902763719</v>
       </c>
       <c r="E5">
-        <v>0.09295154211988077</v>
+        <v>0.09223656532474678</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007926984817427929</v>
       </c>
       <c r="H5">
-        <v>7.341454648810014</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0142375315175034</v>
+        <v>7.359578703559379</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01410067116558444</v>
       </c>
       <c r="K5">
-        <v>0.4284506640664674</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4261314295408241</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.707838062261544</v>
+        <v>2.67987696796547</v>
       </c>
       <c r="C6">
-        <v>1.7987749712359</v>
+        <v>1.786652595371038</v>
       </c>
       <c r="D6">
-        <v>0.1884550385233581</v>
+        <v>0.1872816110861493</v>
       </c>
       <c r="E6">
-        <v>0.09225773543252558</v>
+        <v>0.09154564641433893</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007934549417250449</v>
       </c>
       <c r="H6">
-        <v>7.29111142032923</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01413140910907984</v>
+        <v>7.309620090403826</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.013994530219124</v>
       </c>
       <c r="K6">
-        <v>0.4251101392822818</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4228285086754084</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.866031769777578</v>
+        <v>2.835025743150197</v>
       </c>
       <c r="C7">
-        <v>1.899757214532031</v>
+        <v>1.886028582478787</v>
       </c>
       <c r="D7">
-        <v>0.1983690766336252</v>
+        <v>0.1971196336672563</v>
       </c>
       <c r="E7">
-        <v>0.09710794365061304</v>
+        <v>0.09637525582571627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007882131022645763</v>
       </c>
       <c r="H7">
-        <v>7.642499684418738</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01487347817161222</v>
+        <v>7.658307142814493</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01473663568839179</v>
       </c>
       <c r="K7">
-        <v>0.4484554722975176</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4459106609088579</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.603041037189712</v>
+        <v>3.558111266613082</v>
       </c>
       <c r="C8">
-        <v>2.364844125050297</v>
+        <v>2.343753467943941</v>
       </c>
       <c r="D8">
-        <v>0.2440990992023302</v>
+        <v>0.2424828734878304</v>
       </c>
       <c r="E8">
-        <v>0.1195112400132778</v>
+        <v>0.1186711788966441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007652155175119107</v>
       </c>
       <c r="H8">
-        <v>9.250576349399694</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01830686206519516</v>
+        <v>9.253493493018681</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01816751102504455</v>
       </c>
       <c r="K8">
-        <v>0.5560984167442129</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5523230584500496</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.262104805257593</v>
+        <v>5.186136054283111</v>
       </c>
       <c r="C9">
-        <v>3.384766829936495</v>
+        <v>3.347229465192981</v>
       </c>
       <c r="D9">
-        <v>0.3445655569789068</v>
+        <v>0.3420337302438412</v>
       </c>
       <c r="E9">
-        <v>0.168896779786003</v>
+        <v>0.1677476729748548</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007195426406227945</v>
       </c>
       <c r="H9">
-        <v>12.72463079357331</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02590639997609046</v>
+        <v>12.6961446767877</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02574692010835555</v>
       </c>
       <c r="K9">
-        <v>0.7926363562417862</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.7859819200383313</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.716308852310249</v>
+        <v>6.611943778107559</v>
       </c>
       <c r="C10">
-        <v>4.253267028569894</v>
+        <v>4.200723600323954</v>
       </c>
       <c r="D10">
-        <v>0.4300966533654673</v>
+        <v>0.4266310143924557</v>
       </c>
       <c r="E10">
-        <v>0.2111135422511765</v>
+        <v>0.2096098115909939</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006841671698087914</v>
       </c>
       <c r="H10">
-        <v>15.63061451604426</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0324351295335088</v>
+        <v>15.57093096968151</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03224167849370829</v>
       </c>
       <c r="K10">
-        <v>0.9943572894100186</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9849388947998818</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.467035141756242</v>
+        <v>7.347090543682327</v>
       </c>
       <c r="C11">
-        <v>4.693454199680332</v>
+        <v>4.632714820411309</v>
       </c>
       <c r="D11">
-        <v>0.4733899086795361</v>
+        <v>0.4693804021088113</v>
       </c>
       <c r="E11">
-        <v>0.2325430111199154</v>
+        <v>0.230820008370344</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006671566368825488</v>
       </c>
       <c r="H11">
-        <v>17.08534641137032</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03576052256241447</v>
+        <v>17.00779649358105</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03554291149519351</v>
       </c>
       <c r="K11">
-        <v>1.096654101741294</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.085677678123389</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.769294406577217</v>
+        <v>7.642836742359577</v>
       </c>
       <c r="C12">
-        <v>4.869209827639111</v>
+        <v>4.805053465524566</v>
       </c>
       <c r="D12">
-        <v>0.4906603595370598</v>
+        <v>0.4864177689620988</v>
       </c>
       <c r="E12">
-        <v>0.241103160822469</v>
+        <v>0.2392838803205066</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006605137320120223</v>
       </c>
       <c r="H12">
-        <v>17.66272841924439</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03709104421750276</v>
+        <v>17.57758104279162</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03686228340046505</v>
       </c>
       <c r="K12">
-        <v>1.13750511776891</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.12586991919855</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.703288042698148</v>
+        <v>7.578265794772051</v>
       </c>
       <c r="C13">
-        <v>4.830899526220605</v>
+        <v>4.767495740150594</v>
       </c>
       <c r="D13">
-        <v>0.48689667050607</v>
+        <v>0.4827057219098947</v>
       </c>
       <c r="E13">
-        <v>0.2392371107994649</v>
+        <v>0.237439271097486</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006619548249814476</v>
       </c>
       <c r="H13">
-        <v>17.53704329718511</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03680089377691687</v>
+        <v>17.45357629524631</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03657464117090825</v>
       </c>
       <c r="K13">
-        <v>1.128600382155952</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.1171107237614</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.491503364607922</v>
+        <v>7.371037113506247</v>
       </c>
       <c r="C14">
-        <v>4.707712735696134</v>
+        <v>4.646699468774557</v>
       </c>
       <c r="D14">
-        <v>0.4747913667686703</v>
+        <v>0.4707633101680528</v>
       </c>
       <c r="E14">
-        <v>0.2332374006122109</v>
+        <v>0.2315067829680473</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006666146727204031</v>
       </c>
       <c r="H14">
-        <v>17.13226173017119</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03586840648788936</v>
+        <v>17.05410591462737</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03564992444474413</v>
       </c>
       <c r="K14">
-        <v>1.099968111536327</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.088939077845339</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.364315221683796</v>
+        <v>7.246550301682191</v>
       </c>
       <c r="C15">
-        <v>4.633535548646876</v>
+        <v>4.573940973141191</v>
       </c>
       <c r="D15">
-        <v>0.4674998993525037</v>
+        <v>0.4635676734739889</v>
       </c>
       <c r="E15">
-        <v>0.2296251259441533</v>
+        <v>0.2279337560316961</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006694401283815224</v>
       </c>
       <c r="H15">
-        <v>16.88805184101602</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03530727425448532</v>
+        <v>16.81302851969104</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03509326018675019</v>
       </c>
       <c r="K15">
-        <v>1.08272787929765</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.0719709849091</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.66943003593002</v>
+        <v>6.566012993542131</v>
       </c>
       <c r="C16">
-        <v>4.225602076959944</v>
+        <v>4.173558341277158</v>
       </c>
       <c r="D16">
-        <v>0.4273741374829569</v>
+        <v>0.4239409280536961</v>
       </c>
       <c r="E16">
-        <v>0.2097673120368171</v>
+        <v>0.2082763943044839</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006852551238667435</v>
       </c>
       <c r="H16">
-        <v>15.53877771044489</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03222648075118428</v>
+        <v>15.48016602323605</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03203438014645066</v>
       </c>
       <c r="K16">
-        <v>0.9879291052189387</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9786046481059714</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.268972541200696</v>
+        <v>6.173551902638224</v>
       </c>
       <c r="C17">
-        <v>3.988399892622738</v>
+        <v>3.940574929408854</v>
       </c>
       <c r="D17">
-        <v>0.4040244643879163</v>
+        <v>0.4008615328909713</v>
       </c>
       <c r="E17">
-        <v>0.1982279750453273</v>
+        <v>0.1968425713160755</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006946814579409377</v>
       </c>
       <c r="H17">
-        <v>14.74938500967596</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0304392675109284</v>
+        <v>14.69973711400556</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0302579842909072</v>
       </c>
       <c r="K17">
-        <v>0.9328191262241461</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9242827193670422</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.046630288727897</v>
+        <v>5.955577532327595</v>
       </c>
       <c r="C18">
-        <v>3.856009750723274</v>
+        <v>3.810492027978455</v>
       </c>
       <c r="D18">
-        <v>0.3909877750684672</v>
+        <v>0.3879699237744632</v>
       </c>
       <c r="E18">
-        <v>0.191790420578684</v>
+        <v>0.1904606599167167</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007000222590947566</v>
       </c>
       <c r="H18">
-        <v>14.3072656482895</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02944318059476458</v>
+        <v>14.26245275001091</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02926736238230454</v>
       </c>
       <c r="K18">
-        <v>0.902065666561839</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.8939563411779972</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.972599857012654</v>
+        <v>5.882991166477154</v>
       </c>
       <c r="C19">
-        <v>3.811817893369152</v>
+        <v>3.767063369508492</v>
       </c>
       <c r="D19">
-        <v>0.3866355133169748</v>
+        <v>0.3836652144171353</v>
       </c>
       <c r="E19">
-        <v>0.1896420788236952</v>
+        <v>0.1883303950927768</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007018183073877257</v>
       </c>
       <c r="H19">
-        <v>14.15944183451086</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02911091931237841</v>
+        <v>14.11621738887538</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02893683714716744</v>
       </c>
       <c r="K19">
-        <v>0.8918010790395812</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.883832403487034</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.310744919500223</v>
+        <v>6.214498237477926</v>
       </c>
       <c r="C20">
-        <v>4.013217012557334</v>
+        <v>3.964955924255605</v>
       </c>
       <c r="D20">
-        <v>0.4064679179887918</v>
+        <v>0.4032773422637916</v>
       </c>
       <c r="E20">
-        <v>0.1994349684698093</v>
+        <v>0.1980388808600893</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006936867972633681</v>
       </c>
       <c r="H20">
-        <v>14.83214005792138</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0306261029770134</v>
+        <v>14.78157277328393</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03044375050187753</v>
       </c>
       <c r="K20">
-        <v>0.93858443660028</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9299669869151899</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.553168115158371</v>
+        <v>7.431382932223471</v>
       </c>
       <c r="C21">
-        <v>4.743622783509352</v>
+        <v>4.681917189288697</v>
       </c>
       <c r="D21">
-        <v>0.4783206580818842</v>
+        <v>0.4742456068902641</v>
       </c>
       <c r="E21">
-        <v>0.2349862745047986</v>
+        <v>0.2332363279371279</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006652521452473212</v>
       </c>
       <c r="H21">
-        <v>17.25035992777248</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03614015681626803</v>
+        <v>17.17067011410006</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03591945533248087</v>
       </c>
       <c r="K21">
-        <v>1.108314521186713</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.097152348864768</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.474537343661098</v>
+        <v>8.332233689101656</v>
       </c>
       <c r="C22">
-        <v>5.276122332986574</v>
+        <v>5.203677080337457</v>
       </c>
       <c r="D22">
-        <v>0.5306048695960328</v>
+        <v>0.5257825973228307</v>
       </c>
       <c r="E22">
-        <v>0.260927449714238</v>
+        <v>0.2588635768699987</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006454338656547115</v>
       </c>
       <c r="H22">
-        <v>18.99179094799462</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04017720468371699</v>
+        <v>18.88788882338872</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03991893174189087</v>
       </c>
       <c r="K22">
-        <v>1.232092661927751</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.218838453205223</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.970316718616687</v>
+        <v>7.839439863038763</v>
       </c>
       <c r="C23">
-        <v>4.985643274658401</v>
+        <v>4.919171748014548</v>
       </c>
       <c r="D23">
-        <v>0.5020960454490364</v>
+        <v>0.4976935287943718</v>
       </c>
       <c r="E23">
-        <v>0.2467749602414528</v>
+        <v>0.244888902651077</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006561569741380634</v>
       </c>
       <c r="H23">
-        <v>18.04412973080906</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03797331322473951</v>
+        <v>17.95378876261486</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03773665385972258</v>
       </c>
       <c r="K23">
-        <v>1.164569281845559</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.152484802209074</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.291835413106867</v>
+        <v>6.195962884864912</v>
       </c>
       <c r="C24">
-        <v>4.001984969413456</v>
+        <v>3.953921413878049</v>
       </c>
       <c r="D24">
-        <v>0.4053620428262832</v>
+        <v>0.402183996514168</v>
       </c>
       <c r="E24">
-        <v>0.198888683011063</v>
+        <v>0.1974974408999088</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006941367231147749</v>
       </c>
       <c r="H24">
-        <v>14.79469052248811</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03054153821017991</v>
+        <v>14.74453986579175</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03035967144621488</v>
       </c>
       <c r="K24">
-        <v>0.935975083725225</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9273943527772275</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.781542255948978</v>
+        <v>4.714627566129082</v>
       </c>
       <c r="C25">
-        <v>3.092777978635013</v>
+        <v>3.060037414355406</v>
       </c>
       <c r="D25">
-        <v>0.3157949933836761</v>
+        <v>0.3135428016320105</v>
       </c>
       <c r="E25">
-        <v>0.1547316128828484</v>
+        <v>0.1536818257534875</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007320850158751429</v>
       </c>
       <c r="H25">
-        <v>11.73698456190175</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02372241953352727</v>
+        <v>11.71799116228956</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02357076284944526</v>
       </c>
       <c r="K25">
-        <v>0.7248691403734497</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.7190717086477392</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.765464999356311</v>
+        <v>6.210037024261112</v>
       </c>
       <c r="C2">
-        <v>2.473515574261796</v>
+        <v>1.027203744540543</v>
       </c>
       <c r="D2">
-        <v>0.2553527443428862</v>
+        <v>0.1967161540074045</v>
       </c>
       <c r="E2">
-        <v>0.1250044604058616</v>
+        <v>0.00841236592661021</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007589860776597079</v>
+        <v>0.0008078250618010413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.702709273838622</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01914351878340526</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.574491596526983</v>
       </c>
       <c r="L2">
-        <v>0.5825139460744069</v>
+        <v>0.3965260237120987</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>4.233222206071048</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.177792230521959</v>
+        <v>5.406015856883641</v>
       </c>
       <c r="C3">
-        <v>2.104066430411876</v>
+        <v>0.8780201926532527</v>
       </c>
       <c r="D3">
-        <v>0.2187201326233463</v>
+        <v>0.168370818433047</v>
       </c>
       <c r="E3">
-        <v>0.1069864722217666</v>
+        <v>0.00833200549368962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000777041830627212</v>
+        <v>0.0008226859598425802</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.420316458560819</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01636847855104762</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.363476760450368</v>
       </c>
       <c r="L3">
-        <v>0.4965824242782517</v>
+        <v>0.3471486826081502</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>3.96700543265365</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.836859574578739</v>
+        <v>4.929991894659167</v>
       </c>
       <c r="C4">
-        <v>1.887200547547991</v>
+        <v>0.7894467532509566</v>
       </c>
       <c r="D4">
-        <v>0.1972356848676213</v>
+        <v>0.1515164186696296</v>
       </c>
       <c r="E4">
-        <v>0.09643223928739175</v>
+        <v>0.008291229865244998</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007881518786428348</v>
+        <v>0.0008319446751468963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.662413969419845</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01474539393861107</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.238451129698703</v>
       </c>
       <c r="L4">
-        <v>0.4461829250226188</v>
+        <v>0.3179344736945069</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.808940784884044</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.702038572106176</v>
+        <v>4.739795966740985</v>
       </c>
       <c r="C5">
-        <v>1.800875022992614</v>
+        <v>0.7539890290953224</v>
       </c>
       <c r="D5">
-        <v>0.1886892902763719</v>
+        <v>0.1447640702526201</v>
       </c>
       <c r="E5">
-        <v>0.09223656532474678</v>
+        <v>0.008276516734026851</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007926984817427929</v>
+        <v>0.000835757687331944</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.359578703559379</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01410067116558444</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.188471769626631</v>
       </c>
       <c r="L5">
-        <v>0.4261314295408241</v>
+        <v>0.3062675676033422</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.745694138333732</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.67987696796547</v>
+        <v>4.708425462693413</v>
       </c>
       <c r="C6">
-        <v>1.786652595371038</v>
+        <v>0.7481364397598895</v>
       </c>
       <c r="D6">
-        <v>0.1872816110861493</v>
+        <v>0.1436492555644975</v>
       </c>
       <c r="E6">
-        <v>0.09154564641433893</v>
+        <v>0.008274182064458291</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007934549417250449</v>
+        <v>0.0008363934206569675</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.309620090403826</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.013994530219124</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.180226709986627</v>
       </c>
       <c r="L6">
-        <v>0.4228285086754084</v>
+        <v>0.3043436138923425</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.735257397004347</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.835025743150197</v>
+        <v>4.927412306111933</v>
       </c>
       <c r="C7">
-        <v>1.886028582478787</v>
+        <v>0.7889661320517121</v>
       </c>
       <c r="D7">
-        <v>0.1971196336672563</v>
+        <v>0.1514249119378093</v>
       </c>
       <c r="E7">
-        <v>0.09637525582571627</v>
+        <v>0.008291024032447525</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007882131022645763</v>
+        <v>0.0008319959292127032</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.658307142814493</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01473663568839179</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.237773374867857</v>
       </c>
       <c r="L7">
-        <v>0.4459106609088579</v>
+        <v>0.3177762138989806</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.808083331319892</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.558111266613082</v>
+        <v>5.928727257032392</v>
       </c>
       <c r="C8">
-        <v>2.343753467943941</v>
+        <v>0.9750568012235306</v>
       </c>
       <c r="D8">
-        <v>0.2424828734878304</v>
+        <v>0.186814173487079</v>
       </c>
       <c r="E8">
-        <v>0.1186711788966441</v>
+        <v>0.008382714158882698</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007652155175119107</v>
+        <v>0.0008129253397297761</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.253493493018681</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01816751102504455</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.500680752795134</v>
       </c>
       <c r="L8">
-        <v>0.5523230584500496</v>
+        <v>0.3792461867050605</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>4.140188542313382</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.186136054283111</v>
+        <v>8.067356817991879</v>
       </c>
       <c r="C9">
-        <v>3.347229465192981</v>
+        <v>1.37070713123353</v>
       </c>
       <c r="D9">
-        <v>0.3420337302438412</v>
+        <v>0.26177477249297</v>
       </c>
       <c r="E9">
-        <v>0.1677476729748548</v>
+        <v>0.008644761630510533</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007195426406227945</v>
+        <v>0.0007762538436336551</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.6961446767877</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02574692010835555</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.061503806045394</v>
       </c>
       <c r="L9">
-        <v>0.7859819200383313</v>
+        <v>0.5106643295059996</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.844423019059633</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.611943778107559</v>
+        <v>9.805872266891015</v>
       </c>
       <c r="C10">
-        <v>4.200723600323954</v>
+        <v>1.691799085774733</v>
       </c>
       <c r="D10">
-        <v>0.4266310143924557</v>
+        <v>0.3223143651665197</v>
       </c>
       <c r="E10">
-        <v>0.2096098115909939</v>
+        <v>0.008913816921734208</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006841671698087914</v>
+        <v>0.000749172074357212</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.57093096968151</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03224167849370829</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.517148821065717</v>
       </c>
       <c r="L10">
-        <v>0.9849388947998818</v>
+        <v>0.6174996892337674</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.411589145273808</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.347090543682327</v>
+        <v>10.65124998447709</v>
       </c>
       <c r="C11">
-        <v>4.632714820411309</v>
+        <v>1.848003080926162</v>
       </c>
       <c r="D11">
-        <v>0.4693804021088113</v>
+        <v>0.3516647801652226</v>
       </c>
       <c r="E11">
-        <v>0.230820008370344</v>
+        <v>0.009061464022239174</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006671566368825488</v>
+        <v>0.0007366478723404171</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.00779649358105</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03554291149519351</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.738714723923295</v>
       </c>
       <c r="L11">
-        <v>1.085677678123389</v>
+        <v>0.6694259100197115</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.68560343356512</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.642836742359577</v>
+        <v>10.98123861743113</v>
       </c>
       <c r="C12">
-        <v>4.805053465524566</v>
+        <v>1.909007482536367</v>
       </c>
       <c r="D12">
-        <v>0.4864177689620988</v>
+        <v>0.3631088457545388</v>
       </c>
       <c r="E12">
-        <v>0.2392838803205066</v>
+        <v>0.009122039077125277</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006605137320120223</v>
+        <v>0.0007318565288592038</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.57758104279162</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03686228340046505</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.825208648006367</v>
       </c>
       <c r="L12">
-        <v>1.12586991919855</v>
+        <v>0.6896886683506125</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.792241964562834</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.578265794772051</v>
+        <v>10.90969279605997</v>
       </c>
       <c r="C13">
-        <v>4.767495740150594</v>
+        <v>1.895779163415966</v>
       </c>
       <c r="D13">
-        <v>0.4827057219098947</v>
+        <v>0.3606281875576087</v>
       </c>
       <c r="E13">
-        <v>0.237439271097486</v>
+        <v>0.009108765458893608</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006619548249814476</v>
+        <v>0.0007328909604818396</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.45357629524631</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03657464117090825</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.806455213758881</v>
       </c>
       <c r="L13">
-        <v>1.1171107237614</v>
+        <v>0.6852957765860168</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>5.769136772727677</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.371037113506247</v>
+        <v>10.67818712480948</v>
       </c>
       <c r="C14">
-        <v>4.646699468774557</v>
+        <v>1.852982144956798</v>
       </c>
       <c r="D14">
-        <v>0.4707633101680528</v>
+        <v>0.3525992176795398</v>
       </c>
       <c r="E14">
-        <v>0.2315067829680473</v>
+        <v>0.009066346925093227</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006666146727204031</v>
+        <v>0.0007362547907976413</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.05410591462737</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03564992444474413</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.745775086963562</v>
       </c>
       <c r="L14">
-        <v>1.088939077845339</v>
+        <v>0.6710801151973413</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.694315192576369</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.246550301682191</v>
+        <v>10.53773697263</v>
       </c>
       <c r="C15">
-        <v>4.573940973141191</v>
+        <v>1.827022700792838</v>
       </c>
       <c r="D15">
-        <v>0.4635676734739889</v>
+        <v>0.3477265564482366</v>
       </c>
       <c r="E15">
-        <v>0.2279337560316961</v>
+        <v>0.009041008310913035</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006694401283815224</v>
+        <v>0.0007383082309085041</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.81302851969104</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03509326018675019</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.708962697267836</v>
       </c>
       <c r="L15">
-        <v>1.0719709849091</v>
+        <v>0.6624548221070654</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.648878864574783</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.566012993542131</v>
+        <v>9.751882912541532</v>
       </c>
       <c r="C16">
-        <v>4.173558341277158</v>
+        <v>1.681826221750214</v>
       </c>
       <c r="D16">
-        <v>0.4239409280536961</v>
+        <v>0.3204382003587796</v>
       </c>
       <c r="E16">
-        <v>0.2082763943044839</v>
+        <v>0.008904756853217122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006852551238667435</v>
+        <v>0.0007499849084979768</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.48016602323605</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03203438014645066</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.502999244942743</v>
       </c>
       <c r="L16">
-        <v>0.9786046481059714</v>
+        <v>0.614182770885904</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.394049500339918</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.173551902638224</v>
+        <v>9.285030936695989</v>
       </c>
       <c r="C17">
-        <v>3.940574929408854</v>
+        <v>1.595599167568366</v>
       </c>
       <c r="D17">
-        <v>0.4008615328909713</v>
+        <v>0.3042053202524073</v>
       </c>
       <c r="E17">
-        <v>0.1968425713160755</v>
+        <v>0.008828275090233206</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006946814579409377</v>
+        <v>0.0007570835641785808</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.69973711400556</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0302579842909072</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.380647134886146</v>
       </c>
       <c r="L17">
-        <v>0.9242827193670422</v>
+        <v>0.5854981511756989</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.242183864905229</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.955577532327595</v>
+        <v>9.021494415911889</v>
       </c>
       <c r="C18">
-        <v>3.810492027978455</v>
+        <v>1.546928986793489</v>
       </c>
       <c r="D18">
-        <v>0.3879699237744632</v>
+        <v>0.2950339807036642</v>
       </c>
       <c r="E18">
-        <v>0.1904606599167167</v>
+        <v>0.008786584021284405</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007000222590947566</v>
+        <v>0.0007611486699285306</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.26245275001091</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02926736238230454</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.311579475315511</v>
       </c>
       <c r="L18">
-        <v>0.8939563411779972</v>
+        <v>0.5693038076121013</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.156299920318332</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.882991166477154</v>
+        <v>8.933068191863981</v>
       </c>
       <c r="C19">
-        <v>3.767063369508492</v>
+        <v>1.53059862655698</v>
       </c>
       <c r="D19">
-        <v>0.3836652144171353</v>
+        <v>0.2919552986713967</v>
       </c>
       <c r="E19">
-        <v>0.1883303950927768</v>
+        <v>0.008772836708942577</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007018183073877257</v>
+        <v>0.0007625224874073944</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.11621738887538</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02893683714716744</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.2884045171715</v>
       </c>
       <c r="L19">
-        <v>0.883832403487034</v>
+        <v>0.563869742983286</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.127457555836656</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.214498237477926</v>
+        <v>9.334199273085119</v>
       </c>
       <c r="C20">
-        <v>3.964955924255605</v>
+        <v>1.604679882448579</v>
       </c>
       <c r="D20">
-        <v>0.4032773422637916</v>
+        <v>0.3059157762986757</v>
       </c>
       <c r="E20">
-        <v>0.1980388808600893</v>
+        <v>0.008836172301090128</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006936867972633681</v>
+        <v>0.0007563298720464669</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.78157277328393</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03044375050187753</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.393533111604725</v>
       </c>
       <c r="L20">
-        <v>0.9299669869151899</v>
+        <v>0.5885194061488761</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.258194891024289</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.431382932223471</v>
+        <v>10.7458994083255</v>
       </c>
       <c r="C21">
-        <v>4.681917189288697</v>
+        <v>1.865498663756682</v>
       </c>
       <c r="D21">
-        <v>0.4742456068902641</v>
+        <v>0.3549479256350878</v>
       </c>
       <c r="E21">
-        <v>0.2332363279371279</v>
+        <v>0.009078669717126453</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006652521452473212</v>
+        <v>0.0007352682541080499</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.17067011410006</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03591945533248087</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.763522958941095</v>
       </c>
       <c r="L21">
-        <v>1.097152348864768</v>
+        <v>0.6752382028647048</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.716208736444855</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.332233689101656</v>
+        <v>11.72739382770646</v>
       </c>
       <c r="C22">
-        <v>5.203677080337457</v>
+        <v>2.047033553490735</v>
       </c>
       <c r="D22">
-        <v>0.5257825973228307</v>
+        <v>0.3889623504987867</v>
       </c>
       <c r="E22">
-        <v>0.2588635768699987</v>
+        <v>0.009265104830817661</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006454338656547115</v>
+        <v>0.0007212062521358786</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.88788882338872</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03991893174189087</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.02080632566016</v>
       </c>
       <c r="L22">
-        <v>1.218838453205223</v>
+        <v>0.7354901991265734</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.032694987485684</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.839439863038763</v>
+        <v>11.19734171455832</v>
       </c>
       <c r="C23">
-        <v>4.919171748014548</v>
+        <v>1.948969844757301</v>
       </c>
       <c r="D23">
-        <v>0.4976935287943718</v>
+        <v>0.3705998053845718</v>
       </c>
       <c r="E23">
-        <v>0.244888902651077</v>
+        <v>0.009162603370403311</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006561569741380634</v>
+        <v>0.0007287464340141832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.95378876261486</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03773665385972258</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.881854715931183</v>
       </c>
       <c r="L23">
-        <v>1.152484802209074</v>
+        <v>0.7029561443048351</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>5.861978826468999</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.195962884864912</v>
+        <v>9.311955266254245</v>
       </c>
       <c r="C24">
-        <v>3.953921413878049</v>
+        <v>1.600571707210804</v>
       </c>
       <c r="D24">
-        <v>0.402183996514168</v>
+        <v>0.3051419821105554</v>
       </c>
       <c r="E24">
-        <v>0.1974974408999088</v>
+        <v>0.0088325949454654</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006941367231147749</v>
+        <v>0.0007566706648018483</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.74453986579175</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03035967144621488</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.387703431122986</v>
       </c>
       <c r="L24">
-        <v>0.9273943527772275</v>
+        <v>0.5871525809093896</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.250951906719763</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.714627566129082</v>
+        <v>7.464554563037041</v>
       </c>
       <c r="C25">
-        <v>3.060037414355406</v>
+        <v>1.259325279085942</v>
       </c>
       <c r="D25">
-        <v>0.3135428016320105</v>
+        <v>0.2407117697333518</v>
       </c>
       <c r="E25">
-        <v>0.1536818257534875</v>
+        <v>0.008562755855948789</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007320850158751429</v>
+        <v>0.0007861497579152254</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.71799116228956</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02357076284944526</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.903485394811</v>
       </c>
       <c r="L25">
-        <v>0.7190717086477392</v>
+        <v>0.4736152766236899</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.646642043838654</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.210037024261112</v>
+        <v>3.460416637953699</v>
       </c>
       <c r="C2">
-        <v>1.027203744540543</v>
+        <v>0.4945394894453727</v>
       </c>
       <c r="D2">
-        <v>0.1967161540074045</v>
+        <v>0.2009536824928944</v>
       </c>
       <c r="E2">
-        <v>0.00841236592661021</v>
+        <v>0.03659889692041673</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008078250618010413</v>
+        <v>2.915623600409361</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.59543011880794</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.574491596526983</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3965260237120987</v>
+        <v>0.3260680723996359</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.233222206071048</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.406015856883641</v>
+        <v>2.988819204854281</v>
       </c>
       <c r="C3">
-        <v>0.8780201926532527</v>
+        <v>0.4337957706491693</v>
       </c>
       <c r="D3">
-        <v>0.168370818433047</v>
+        <v>0.1730364914551075</v>
       </c>
       <c r="E3">
-        <v>0.00833200549368962</v>
+        <v>0.03582873011977661</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008226859598425802</v>
+        <v>2.603505272851692</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.457218926062097</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.363476760450368</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3471486826081502</v>
+        <v>0.2850877392443039</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.96700543265365</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.929991894659167</v>
+        <v>2.704532956350477</v>
       </c>
       <c r="C4">
-        <v>0.7894467532509566</v>
+        <v>0.3968979261552761</v>
       </c>
       <c r="D4">
-        <v>0.1515164186696296</v>
+        <v>0.1562524440318498</v>
       </c>
       <c r="E4">
-        <v>0.008291229865244998</v>
+        <v>0.03540354029679627</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008319446751468963</v>
+        <v>2.418647116076102</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.375864205221148</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.238451129698703</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3179344736945069</v>
+        <v>0.2605208316620775</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.808940784884044</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.739795966740985</v>
+        <v>2.589823037632755</v>
       </c>
       <c r="C5">
-        <v>0.7539890290953224</v>
+        <v>0.381939096174591</v>
       </c>
       <c r="D5">
-        <v>0.1447640702526201</v>
+        <v>0.1494898116306871</v>
       </c>
       <c r="E5">
-        <v>0.008276516734026851</v>
+        <v>0.03524144873782831</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000835757687331944</v>
+        <v>2.344823394760283</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.343499904101662</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.188471769626631</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3062675676033422</v>
+        <v>0.2506408344539608</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.745694138333732</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.708425462693413</v>
+        <v>2.570839190955894</v>
       </c>
       <c r="C6">
-        <v>0.7481364397598895</v>
+        <v>0.3794592370561247</v>
       </c>
       <c r="D6">
-        <v>0.1436492555644975</v>
+        <v>0.1483711803003871</v>
       </c>
       <c r="E6">
-        <v>0.008274182064458291</v>
+        <v>0.03521518608473606</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008363934206569675</v>
+        <v>2.332650619964994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.338170883254662</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.180226709986627</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3043436138923425</v>
+        <v>0.2490076870754621</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.735257397004347</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.927412306111933</v>
+        <v>2.702981561365391</v>
       </c>
       <c r="C7">
-        <v>0.7889661320517121</v>
+        <v>0.3966959016850637</v>
       </c>
       <c r="D7">
-        <v>0.1514249119378093</v>
+        <v>0.1561609450976675</v>
       </c>
       <c r="E7">
-        <v>0.008291024032447525</v>
+        <v>0.03540131004615255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008319959292127032</v>
+        <v>2.417645648551371</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.375424654041865</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.237773374867857</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3177762138989806</v>
+        <v>0.2603870783927107</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.808083331319892</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.928727257032392</v>
+        <v>3.296595652824692</v>
       </c>
       <c r="C8">
-        <v>0.9750568012235306</v>
+        <v>0.4734976053920263</v>
       </c>
       <c r="D8">
-        <v>0.186814173487079</v>
+        <v>0.1912455769940351</v>
       </c>
       <c r="E8">
-        <v>0.008382714158882698</v>
+        <v>0.03632292890843303</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008129253397297761</v>
+        <v>2.806471734337862</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.546987703382143</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.500680752795134</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3792461867050605</v>
+        <v>0.3118028455069322</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.140188542313382</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.067356817991879</v>
+        <v>4.51213453018903</v>
       </c>
       <c r="C9">
-        <v>1.37070713123353</v>
+        <v>0.6284562836839598</v>
       </c>
       <c r="D9">
-        <v>0.26177477249297</v>
+        <v>0.2635333985040234</v>
       </c>
       <c r="E9">
-        <v>0.008644761630510533</v>
+        <v>0.03854986437644747</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007762538436336551</v>
+        <v>3.632864294736862</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.916008748809361</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.061503806045394</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5106643295059996</v>
+        <v>0.4182905787259301</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.844423019059633</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.805872266891015</v>
+        <v>5.451968880987579</v>
       </c>
       <c r="C10">
-        <v>1.691799085774733</v>
+        <v>0.746875207638027</v>
       </c>
       <c r="D10">
-        <v>0.3223143651665197</v>
+        <v>0.3198124205720489</v>
       </c>
       <c r="E10">
-        <v>0.008913816921734208</v>
+        <v>0.04050712003838086</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000749172074357212</v>
+        <v>4.295082198476308</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.214595243075905</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.517148821065717</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6174996892337674</v>
+        <v>0.5014798396248636</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.411589145273808</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.65124998447709</v>
+        <v>5.893800357392138</v>
       </c>
       <c r="C11">
-        <v>1.848003080926162</v>
+        <v>0.8022587690678336</v>
       </c>
       <c r="D11">
-        <v>0.3516647801652226</v>
+        <v>0.3463813907629856</v>
       </c>
       <c r="E11">
-        <v>0.009061464022239174</v>
+        <v>0.04148450328245268</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007366478723404171</v>
+        <v>4.612598441667899</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.358423000995629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.738714723923295</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6694259100197115</v>
+        <v>0.5407998930233333</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.68560343356512</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.98123861743113</v>
+        <v>6.063576067880604</v>
       </c>
       <c r="C12">
-        <v>1.909007482536367</v>
+        <v>0.8235010301700072</v>
       </c>
       <c r="D12">
-        <v>0.3631088457545388</v>
+        <v>0.3566090937018203</v>
       </c>
       <c r="E12">
-        <v>0.009122039077125277</v>
+        <v>0.04186883077488446</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007318565288592038</v>
+        <v>4.735601551090383</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.41423933693585</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.825208648006367</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6896886683506125</v>
+        <v>0.5559413900498811</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.792241964562834</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.90969279605997</v>
+        <v>6.026895038145312</v>
       </c>
       <c r="C13">
-        <v>1.895779163415966</v>
+        <v>0.8189132093038722</v>
       </c>
       <c r="D13">
-        <v>0.3606281875576087</v>
+        <v>0.3543984787099248</v>
       </c>
       <c r="E13">
-        <v>0.009108765458893608</v>
+        <v>0.04178539686430405</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007328909604818396</v>
+        <v>4.708980030654459</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.402154597750211</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.806455213758881</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6852957765860168</v>
+        <v>0.5526684995832625</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.769136772727677</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.67818712480948</v>
+        <v>5.907715955096251</v>
       </c>
       <c r="C14">
-        <v>1.852982144956798</v>
+        <v>0.8040006475775101</v>
       </c>
       <c r="D14">
-        <v>0.3525992176795398</v>
+        <v>0.3472193174472977</v>
       </c>
       <c r="E14">
-        <v>0.009066346925093227</v>
+        <v>0.04151582658250419</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007362547907976413</v>
+        <v>4.622659839103335</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.362986677965409</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.745775086963562</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6710801151973413</v>
+        <v>0.5420402969039202</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.694315192576369</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.53773697263</v>
+        <v>5.835049416846914</v>
       </c>
       <c r="C15">
-        <v>1.827022700792838</v>
+        <v>0.7949030915858089</v>
       </c>
       <c r="D15">
-        <v>0.3477265564482366</v>
+        <v>0.3428444634518968</v>
       </c>
       <c r="E15">
-        <v>0.009041008310913035</v>
+        <v>0.04135261302639215</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007383082309085041</v>
+        <v>4.570160381781932</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.339177795512626</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.708962697267836</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6624548221070654</v>
+        <v>0.5355642931715465</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.648878864574783</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.751882912541532</v>
+        <v>5.423415231510035</v>
       </c>
       <c r="C16">
-        <v>1.681826221750214</v>
+        <v>0.7432904763549573</v>
       </c>
       <c r="D16">
-        <v>0.3204382003587796</v>
+        <v>0.3180977948341024</v>
       </c>
       <c r="E16">
-        <v>0.008904756853217122</v>
+        <v>0.04044513628658386</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007499849084979768</v>
+        <v>4.274694121796671</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.205373233383341</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.502999244942743</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.614182770885904</v>
+        <v>0.4989431343863799</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.394049500339918</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.285030936695989</v>
+        <v>5.174822920674274</v>
       </c>
       <c r="C17">
-        <v>1.595599167568366</v>
+        <v>0.712049939041151</v>
       </c>
       <c r="D17">
-        <v>0.3042053202524073</v>
+        <v>0.303182522360359</v>
       </c>
       <c r="E17">
-        <v>0.008828275090233206</v>
+        <v>0.03991184680709559</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007570835641785808</v>
+        <v>4.097885274739724</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.125470881157469</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.380647134886146</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5854981511756989</v>
+        <v>0.4768816902132897</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.242183864905229</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.021494415911889</v>
+        <v>5.033156894399326</v>
       </c>
       <c r="C18">
-        <v>1.546928986793489</v>
+        <v>0.6942201532982324</v>
       </c>
       <c r="D18">
-        <v>0.2950339807036642</v>
+        <v>0.2946928248343426</v>
       </c>
       <c r="E18">
-        <v>0.008786584021284405</v>
+        <v>0.03961318759089849</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007611486699285306</v>
+        <v>3.997691697866998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.080252296269407</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.311579475315511</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5693038076121013</v>
+        <v>0.4643288419932077</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.156299920318332</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.933068191863981</v>
+        <v>4.985406133384402</v>
       </c>
       <c r="C19">
-        <v>1.53059862655698</v>
+        <v>0.6882057135291859</v>
       </c>
       <c r="D19">
-        <v>0.2919552986713967</v>
+        <v>0.2918329056016944</v>
       </c>
       <c r="E19">
-        <v>0.008772836708942577</v>
+        <v>0.03951340586964314</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007625224874073944</v>
+        <v>3.964013950476357</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.065063376408403</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.2884045171715</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.563869742983286</v>
+        <v>0.4601009704051506</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.127457555836656</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.334199273085119</v>
+        <v>5.201146870843274</v>
       </c>
       <c r="C20">
-        <v>1.604679882448579</v>
+        <v>0.715360818457583</v>
       </c>
       <c r="D20">
-        <v>0.3059157762986757</v>
+        <v>0.3047608640284238</v>
       </c>
       <c r="E20">
-        <v>0.008836172301090128</v>
+        <v>0.03996776917350253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007563298720464669</v>
+        <v>4.116548529126874</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.13389876669379</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.393533111604725</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5885194061488761</v>
+        <v>0.4792157945445155</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.258194891024289</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.7458994083255</v>
+        <v>5.942651291817697</v>
       </c>
       <c r="C21">
-        <v>1.865498663756682</v>
+        <v>0.8083730497517081</v>
       </c>
       <c r="D21">
-        <v>0.3549479256350878</v>
+        <v>0.3493232479682007</v>
       </c>
       <c r="E21">
-        <v>0.009078669717126453</v>
+        <v>0.04159460527599812</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007352682541080499</v>
+        <v>4.647935335720774</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.37445278440515</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.763522958941095</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6752382028647048</v>
+        <v>0.545154876362119</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.716208736444855</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.72739382770646</v>
+        <v>6.441868114432054</v>
       </c>
       <c r="C22">
-        <v>2.047033553490735</v>
+        <v>0.870764973903249</v>
       </c>
       <c r="D22">
-        <v>0.3889623504987867</v>
+        <v>0.3794346433043927</v>
       </c>
       <c r="E22">
-        <v>0.009265104830817661</v>
+        <v>0.04274167699986897</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007212062521358786</v>
+        <v>5.011604806490084</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.539667375967326</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.02080632566016</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7354901991265734</v>
+        <v>0.5897409991580957</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.032694987485684</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.19734171455832</v>
+        <v>6.173937739543305</v>
       </c>
       <c r="C23">
-        <v>1.948969844757301</v>
+        <v>0.8372989330363225</v>
       </c>
       <c r="D23">
-        <v>0.3705998053845718</v>
+        <v>0.3632629861002101</v>
       </c>
       <c r="E23">
-        <v>0.009162603370403311</v>
+        <v>0.04212115761355939</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007287464340141832</v>
+        <v>4.815848898826914</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.450681756374195</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.881854715931183</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7029561443048351</v>
+        <v>0.5657933367587589</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.861978826468999</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.311955266254245</v>
+        <v>5.189241940057343</v>
       </c>
       <c r="C24">
-        <v>1.600571707210804</v>
+        <v>0.7138635662123818</v>
       </c>
       <c r="D24">
-        <v>0.3051419821105554</v>
+        <v>0.3040470321122513</v>
       </c>
       <c r="E24">
-        <v>0.0088325949454654</v>
+        <v>0.0399424620774198</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007566706648018483</v>
+        <v>4.108106367449437</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.130086296967335</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.387703431122986</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5871525809093896</v>
+        <v>0.478160142175085</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.250951906719763</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.464554563037041</v>
+        <v>4.176325371333348</v>
       </c>
       <c r="C25">
-        <v>1.259325279085942</v>
+        <v>0.5858886277848114</v>
       </c>
       <c r="D25">
-        <v>0.2407117697333518</v>
+        <v>0.2435050009606101</v>
       </c>
       <c r="E25">
-        <v>0.008562755855948789</v>
+        <v>0.03789625496853333</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007861497579152254</v>
+        <v>3.400929097544747</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.811967071961078</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.903485394811</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4736152766236899</v>
+        <v>0.3887337622422251</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.646642043838654</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.460416637953699</v>
+        <v>1.845013590853341</v>
       </c>
       <c r="C2">
-        <v>0.4945394894453727</v>
+        <v>0.1537331888545168</v>
       </c>
       <c r="D2">
-        <v>0.2009536824928944</v>
+        <v>0.07770624144853855</v>
       </c>
       <c r="E2">
-        <v>0.03659889692041673</v>
+        <v>0.07113721758956615</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.915623600409361</v>
+        <v>2.124212706615339</v>
       </c>
       <c r="H2">
-        <v>1.59543011880794</v>
+        <v>1.671350690205969</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3260680723996359</v>
+        <v>0.2405452966810202</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.988819204854281</v>
+        <v>1.734008676065002</v>
       </c>
       <c r="C3">
-        <v>0.4337957706491693</v>
+        <v>0.1359928575599554</v>
       </c>
       <c r="D3">
-        <v>0.1730364914551075</v>
+        <v>0.07057916706918377</v>
       </c>
       <c r="E3">
-        <v>0.03582873011977661</v>
+        <v>0.07122251944040059</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.603505272851692</v>
+        <v>2.054630021345929</v>
       </c>
       <c r="H3">
-        <v>1.457218926062097</v>
+        <v>1.645254660415617</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2850877392443039</v>
+        <v>0.2316589118509569</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704532956350477</v>
+        <v>1.667079613234932</v>
       </c>
       <c r="C4">
-        <v>0.3968979261552761</v>
+        <v>0.1250446443515045</v>
       </c>
       <c r="D4">
-        <v>0.1562524440318498</v>
+        <v>0.06624682934017301</v>
       </c>
       <c r="E4">
-        <v>0.03540354029679627</v>
+        <v>0.07129514232904555</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.418647116076102</v>
+        <v>2.013168216694027</v>
       </c>
       <c r="H4">
-        <v>1.375864205221148</v>
+        <v>1.630096018852299</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2605208316620775</v>
+        <v>0.2263594676026628</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.589823037632755</v>
+        <v>1.640112957842121</v>
       </c>
       <c r="C5">
-        <v>0.381939096174591</v>
+        <v>0.1205689255971265</v>
       </c>
       <c r="D5">
-        <v>0.1494898116306871</v>
+        <v>0.06449215524688157</v>
       </c>
       <c r="E5">
-        <v>0.03524144873782831</v>
+        <v>0.07132981841615127</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.344823394760283</v>
+        <v>1.996585776842409</v>
       </c>
       <c r="H5">
-        <v>1.343499904101662</v>
+        <v>1.624134465178088</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2506408344539608</v>
+        <v>0.2242391444272016</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.570839190955894</v>
+        <v>1.635653696407303</v>
       </c>
       <c r="C6">
-        <v>0.3794592370561247</v>
+        <v>0.1198248689121613</v>
       </c>
       <c r="D6">
-        <v>0.1483711803003871</v>
+        <v>0.06420143865980776</v>
       </c>
       <c r="E6">
-        <v>0.03521518608473606</v>
+        <v>0.07133588299443083</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.332650619964994</v>
+        <v>1.993851103675382</v>
       </c>
       <c r="H6">
-        <v>1.338170883254662</v>
+        <v>1.623157534371558</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2490076870754621</v>
+        <v>0.2238894310350048</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.702981561365391</v>
+        <v>1.66671468834619</v>
       </c>
       <c r="C7">
-        <v>0.3966959016850637</v>
+        <v>0.1249843412018947</v>
       </c>
       <c r="D7">
-        <v>0.1561609450976675</v>
+        <v>0.06622312177329093</v>
       </c>
       <c r="E7">
-        <v>0.03540131004615255</v>
+        <v>0.07129558941975844</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.417645648551371</v>
+        <v>2.012943315475951</v>
       </c>
       <c r="H7">
-        <v>1.375424654041865</v>
+        <v>1.630014748039088</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2603870783927107</v>
+        <v>0.2263307135373935</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.296595652824692</v>
+        <v>1.806483235213477</v>
       </c>
       <c r="C8">
-        <v>0.4734976053920263</v>
+        <v>0.1476276957644131</v>
       </c>
       <c r="D8">
-        <v>0.1912455769940351</v>
+        <v>0.07523962771844594</v>
       </c>
       <c r="E8">
-        <v>0.03632292890843303</v>
+        <v>0.0711624214521116</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.806471734337862</v>
+        <v>2.099956289286638</v>
       </c>
       <c r="H8">
-        <v>1.546987703382143</v>
+        <v>1.662172359793061</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3118028455069322</v>
+        <v>0.2374485996890598</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.51213453018903</v>
+        <v>2.090398638235399</v>
       </c>
       <c r="C9">
-        <v>0.6284562836839598</v>
+        <v>0.1916042013069443</v>
       </c>
       <c r="D9">
-        <v>0.2635333985040234</v>
+        <v>0.09327800897877125</v>
       </c>
       <c r="E9">
-        <v>0.03854986437644747</v>
+        <v>0.0710624056574396</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.632864294736862</v>
+        <v>2.280786537497107</v>
       </c>
       <c r="H9">
-        <v>1.916008748809361</v>
+        <v>1.732171573508879</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4182905787259301</v>
+        <v>0.2605054732274965</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.451968880987579</v>
+        <v>2.305126325548088</v>
       </c>
       <c r="C10">
-        <v>0.746875207638027</v>
+        <v>0.2236760781646296</v>
       </c>
       <c r="D10">
-        <v>0.3198124205720489</v>
+        <v>0.1067640070761939</v>
       </c>
       <c r="E10">
-        <v>0.04050712003838086</v>
+        <v>0.07108786264558553</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.295082198476308</v>
+        <v>2.420127632426215</v>
       </c>
       <c r="H10">
-        <v>2.214595243075905</v>
+        <v>1.787946806656777</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5014798396248636</v>
+        <v>0.2782269455129409</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.893800357392138</v>
+        <v>2.404177183460945</v>
       </c>
       <c r="C11">
-        <v>0.8022587690678336</v>
+        <v>0.238220024434753</v>
       </c>
       <c r="D11">
-        <v>0.3463813907629856</v>
+        <v>0.1129532542650367</v>
       </c>
       <c r="E11">
-        <v>0.04148450328245268</v>
+        <v>0.07112108675379325</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.612598441667899</v>
+        <v>2.484984835592229</v>
       </c>
       <c r="H11">
-        <v>2.358423000995629</v>
+        <v>1.814290191105783</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5407998930233333</v>
+        <v>0.2864624392288988</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.063576067880604</v>
+        <v>2.441884499344326</v>
       </c>
       <c r="C12">
-        <v>0.8235010301700072</v>
+        <v>0.2437212372405497</v>
       </c>
       <c r="D12">
-        <v>0.3566090937018203</v>
+        <v>0.1153050421101085</v>
       </c>
       <c r="E12">
-        <v>0.04186883077488446</v>
+        <v>0.07113679257140326</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.735601551090383</v>
+        <v>2.509760541113735</v>
       </c>
       <c r="H12">
-        <v>2.41423933693585</v>
+        <v>1.824407362856903</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5559413900498811</v>
+        <v>0.2896062891172306</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.026895038145312</v>
+        <v>2.433754677070851</v>
       </c>
       <c r="C13">
-        <v>0.8189132093038722</v>
+        <v>0.2425367261945723</v>
       </c>
       <c r="D13">
-        <v>0.3543984787099248</v>
+        <v>0.1147981805730041</v>
       </c>
       <c r="E13">
-        <v>0.04178539686430405</v>
+        <v>0.07113327087970589</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.708980030654459</v>
+        <v>2.504414988250403</v>
       </c>
       <c r="H13">
-        <v>2.402154597750211</v>
+        <v>1.822222125259941</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5526684995832625</v>
+        <v>0.2889280780375714</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.907715955096251</v>
+        <v>2.40727538962966</v>
       </c>
       <c r="C14">
-        <v>0.8040006475775101</v>
+        <v>0.2386727362544434</v>
       </c>
       <c r="D14">
-        <v>0.3472193174472977</v>
+        <v>0.1131465745061888</v>
       </c>
       <c r="E14">
-        <v>0.04151582658250419</v>
+        <v>0.07112231618891052</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.622659839103335</v>
+        <v>2.487018800413523</v>
       </c>
       <c r="H14">
-        <v>2.362986677965409</v>
+        <v>1.815119690108247</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5420402969039202</v>
+        <v>0.2867205782657152</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.835049416846914</v>
+        <v>2.391082021968259</v>
       </c>
       <c r="C15">
-        <v>0.7949030915858089</v>
+        <v>0.236305124441941</v>
       </c>
       <c r="D15">
-        <v>0.3428444634518968</v>
+        <v>0.1121359739476162</v>
       </c>
       <c r="E15">
-        <v>0.04135261302639215</v>
+        <v>0.0711160134022375</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.570160381781932</v>
+        <v>2.476391349845358</v>
       </c>
       <c r="H15">
-        <v>2.339177795512626</v>
+        <v>1.810787727709851</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5355642931715465</v>
+        <v>0.2853717160594869</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.423415231510035</v>
+        <v>2.298680848942752</v>
       </c>
       <c r="C16">
-        <v>0.7432904763549573</v>
+        <v>0.2227247034451807</v>
       </c>
       <c r="D16">
-        <v>0.3180977948341024</v>
+        <v>0.1063606395876633</v>
       </c>
       <c r="E16">
-        <v>0.04044513628658386</v>
+        <v>0.07108612793929581</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.274694121796671</v>
+        <v>2.415919010780414</v>
       </c>
       <c r="H16">
-        <v>2.205373233383341</v>
+        <v>1.786244902932651</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4989431343863799</v>
+        <v>0.2776922564144826</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.174822920674274</v>
+        <v>2.242347964615931</v>
       </c>
       <c r="C17">
-        <v>0.712049939041151</v>
+        <v>0.2143820640648357</v>
       </c>
       <c r="D17">
-        <v>0.303182522360359</v>
+        <v>0.1028317556032192</v>
       </c>
       <c r="E17">
-        <v>0.03991184680709559</v>
+        <v>0.07107334627668749</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.097885274739724</v>
+        <v>2.379200778414884</v>
       </c>
       <c r="H17">
-        <v>2.125470881157469</v>
+        <v>1.77143869091779</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4768816902132897</v>
+        <v>0.2730258668335779</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.033156894399326</v>
+        <v>2.210075627995252</v>
       </c>
       <c r="C18">
-        <v>0.6942201532982324</v>
+        <v>0.2095792768520823</v>
       </c>
       <c r="D18">
-        <v>0.2946928248343426</v>
+        <v>0.1008071410741422</v>
       </c>
       <c r="E18">
-        <v>0.03961318759089849</v>
+        <v>0.07106803105757109</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.997691697866998</v>
+        <v>2.358219550236811</v>
       </c>
       <c r="H18">
-        <v>2.080252296269407</v>
+        <v>1.763013826044158</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4643288419932077</v>
+        <v>0.2703582372120792</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.985406133384402</v>
+        <v>2.19917084317774</v>
       </c>
       <c r="C19">
-        <v>0.6882057135291859</v>
+        <v>0.2079523841171351</v>
       </c>
       <c r="D19">
-        <v>0.2918329056016944</v>
+        <v>0.1001225113808317</v>
       </c>
       <c r="E19">
-        <v>0.03951340586964314</v>
+        <v>0.07106658080870076</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.964013950476357</v>
+        <v>2.351139261054669</v>
       </c>
       <c r="H19">
-        <v>2.065063376408403</v>
+        <v>1.760176931408239</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4601009704051506</v>
+        <v>0.2694578253225473</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.201146870843274</v>
+        <v>2.248331347625708</v>
       </c>
       <c r="C20">
-        <v>0.715360818457583</v>
+        <v>0.2152705973402362</v>
       </c>
       <c r="D20">
-        <v>0.3047608640284238</v>
+        <v>0.1032068811888109</v>
       </c>
       <c r="E20">
-        <v>0.03996776917350253</v>
+        <v>0.07107449605303451</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.116548529126874</v>
+        <v>2.383095170421598</v>
       </c>
       <c r="H20">
-        <v>2.13389876669379</v>
+        <v>1.773005377114373</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4792157945445155</v>
+        <v>0.273520917654011</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.942651291817697</v>
+        <v>2.415047584618321</v>
       </c>
       <c r="C21">
-        <v>0.8083730497517081</v>
+        <v>0.2398078512528343</v>
       </c>
       <c r="D21">
-        <v>0.3493232479682007</v>
+        <v>0.1136314707883628</v>
       </c>
       <c r="E21">
-        <v>0.04159460527599812</v>
+        <v>0.0711254489487434</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.647935335720774</v>
+        <v>2.492122594431692</v>
       </c>
       <c r="H21">
-        <v>2.37445278440515</v>
+        <v>1.817201991991396</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.545154876362119</v>
+        <v>0.2873682873182588</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441868114432054</v>
+        <v>2.525166584621275</v>
       </c>
       <c r="C22">
-        <v>0.870764973903249</v>
+        <v>0.2558080045952522</v>
       </c>
       <c r="D22">
-        <v>0.3794346433043927</v>
+        <v>0.1204915994177611</v>
       </c>
       <c r="E22">
-        <v>0.04274167699986897</v>
+        <v>0.07117696780766103</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.011604806490084</v>
+        <v>2.564637541667594</v>
       </c>
       <c r="H22">
-        <v>2.539667375967326</v>
+        <v>1.846912716816234</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5897409991580957</v>
+        <v>0.2965656194040776</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.173937739543305</v>
+        <v>2.466287193287712</v>
       </c>
       <c r="C23">
-        <v>0.8372989330363225</v>
+        <v>0.2472716437804365</v>
       </c>
       <c r="D23">
-        <v>0.3632629861002101</v>
+        <v>0.1168258363912713</v>
       </c>
       <c r="E23">
-        <v>0.04212115761355939</v>
+        <v>0.07114780016237887</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.815848898826914</v>
+        <v>2.525818307354655</v>
       </c>
       <c r="H23">
-        <v>2.450681756374195</v>
+        <v>1.830979366023826</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5657933367587589</v>
+        <v>0.2916432736241887</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.189241940057343</v>
+        <v>2.245625904634551</v>
       </c>
       <c r="C24">
-        <v>0.7138635662123818</v>
+        <v>0.2148689116937703</v>
       </c>
       <c r="D24">
-        <v>0.3040470321122513</v>
+        <v>0.1030372738842686</v>
       </c>
       <c r="E24">
-        <v>0.0399424620774198</v>
+        <v>0.0710739699074221</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.108106367449437</v>
+        <v>2.381334115642289</v>
       </c>
       <c r="H24">
-        <v>2.130086296967335</v>
+        <v>1.772296806122029</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.478160142175085</v>
+        <v>0.273297058038878</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.176325371333348</v>
+        <v>2.012525189863993</v>
       </c>
       <c r="C25">
-        <v>0.5858886277848114</v>
+        <v>0.1797508009542526</v>
       </c>
       <c r="D25">
-        <v>0.2435050009606101</v>
+        <v>0.08835833191416498</v>
       </c>
       <c r="E25">
-        <v>0.03789625496853333</v>
+        <v>0.07107213990658323</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.400929097544747</v>
+        <v>2.23074782037142</v>
       </c>
       <c r="H25">
-        <v>1.811967071961078</v>
+        <v>1.712480115276492</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3887337622422251</v>
+        <v>0.2541319492743526</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.845013590853341</v>
+        <v>3.460416637953756</v>
       </c>
       <c r="C2">
-        <v>0.1537331888545168</v>
+        <v>0.4945394894448896</v>
       </c>
       <c r="D2">
-        <v>0.07770624144853855</v>
+        <v>0.200953682492937</v>
       </c>
       <c r="E2">
-        <v>0.07113721758956615</v>
+        <v>0.03659889692042029</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.124212706615339</v>
+        <v>2.915623600409447</v>
       </c>
       <c r="H2">
-        <v>1.671350690205969</v>
+        <v>1.595430118807826</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2405452966810202</v>
+        <v>0.3260680723996643</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.734008676065002</v>
+        <v>2.988819204854508</v>
       </c>
       <c r="C3">
-        <v>0.1359928575599554</v>
+        <v>0.4337957706493967</v>
       </c>
       <c r="D3">
-        <v>0.07057916706918377</v>
+        <v>0.1730364914551075</v>
       </c>
       <c r="E3">
-        <v>0.07122251944040059</v>
+        <v>0.03582873011971799</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.054630021345929</v>
+        <v>2.603505272851663</v>
       </c>
       <c r="H3">
-        <v>1.645254660415617</v>
+        <v>1.457218926062239</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2316589118509569</v>
+        <v>0.2850877392442612</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.667079613234932</v>
+        <v>2.704532956350363</v>
       </c>
       <c r="C4">
-        <v>0.1250446443515045</v>
+        <v>0.3968979261555319</v>
       </c>
       <c r="D4">
-        <v>0.06624682934017301</v>
+        <v>0.1562524440317219</v>
       </c>
       <c r="E4">
-        <v>0.07129514232904555</v>
+        <v>0.0354035402968087</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.013168216694027</v>
+        <v>2.41864711607613</v>
       </c>
       <c r="H4">
-        <v>1.630096018852299</v>
+        <v>1.375864205221148</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2263594676026628</v>
+        <v>0.260520831662177</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.640112957842121</v>
+        <v>2.589823037632698</v>
       </c>
       <c r="C5">
-        <v>0.1205689255971265</v>
+        <v>0.3819390961750457</v>
       </c>
       <c r="D5">
-        <v>0.06449215524688157</v>
+        <v>0.1494898116306445</v>
       </c>
       <c r="E5">
-        <v>0.07132981841615127</v>
+        <v>0.03524144873786561</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.996585776842409</v>
+        <v>2.344823394760226</v>
       </c>
       <c r="H5">
-        <v>1.624134465178088</v>
+        <v>1.343499904101662</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2242391444272016</v>
+        <v>0.2506408344539608</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.635653696407303</v>
+        <v>2.57083919095578</v>
       </c>
       <c r="C6">
-        <v>0.1198248689121613</v>
+        <v>0.3794592370559258</v>
       </c>
       <c r="D6">
-        <v>0.06420143865980776</v>
+        <v>0.1483711803000318</v>
       </c>
       <c r="E6">
-        <v>0.07133588299443083</v>
+        <v>0.03521518608476626</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.993851103675382</v>
+        <v>2.332650619965023</v>
       </c>
       <c r="H6">
-        <v>1.623157534371558</v>
+        <v>1.338170883254691</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2238894310350048</v>
+        <v>0.2490076870754763</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.66671468834619</v>
+        <v>2.70298156136522</v>
       </c>
       <c r="C7">
-        <v>0.1249843412018947</v>
+        <v>0.3966959016850637</v>
       </c>
       <c r="D7">
-        <v>0.06622312177329093</v>
+        <v>0.1561609450977954</v>
       </c>
       <c r="E7">
-        <v>0.07129558941975844</v>
+        <v>0.0354013100461632</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.012943315475951</v>
+        <v>2.417645648551343</v>
       </c>
       <c r="H7">
-        <v>1.630014748039088</v>
+        <v>1.375424654041865</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2263307135373935</v>
+        <v>0.2603870783927533</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.806483235213477</v>
+        <v>3.296595652824863</v>
       </c>
       <c r="C8">
-        <v>0.1476276957644131</v>
+        <v>0.4734976053922821</v>
       </c>
       <c r="D8">
-        <v>0.07523962771844594</v>
+        <v>0.1912455769940635</v>
       </c>
       <c r="E8">
-        <v>0.0711624214521116</v>
+        <v>0.03632292890846855</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.099956289286638</v>
+        <v>2.806471734337862</v>
       </c>
       <c r="H8">
-        <v>1.662172359793061</v>
+        <v>1.546987703382115</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2374485996890598</v>
+        <v>0.3118028455068185</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.090398638235399</v>
+        <v>4.512134530189144</v>
       </c>
       <c r="C9">
-        <v>0.1916042013069443</v>
+        <v>0.6284562836842156</v>
       </c>
       <c r="D9">
-        <v>0.09327800897877125</v>
+        <v>0.2635333985042649</v>
       </c>
       <c r="E9">
-        <v>0.0710624056574396</v>
+        <v>0.038549864376483</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.280786537497107</v>
+        <v>3.632864294736777</v>
       </c>
       <c r="H9">
-        <v>1.732171573508879</v>
+        <v>1.916008748809361</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2605054732274965</v>
+        <v>0.4182905787258306</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.305126325548088</v>
+        <v>5.451968880987749</v>
       </c>
       <c r="C10">
-        <v>0.2236760781646296</v>
+        <v>0.746875207638027</v>
       </c>
       <c r="D10">
-        <v>0.1067640070761939</v>
+        <v>0.3198124205722763</v>
       </c>
       <c r="E10">
-        <v>0.07108786264558553</v>
+        <v>0.04050712003841817</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.420127632426215</v>
+        <v>4.295082198476308</v>
       </c>
       <c r="H10">
-        <v>1.787946806656777</v>
+        <v>2.214595243076019</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2782269455129409</v>
+        <v>0.501479839624821</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.404177183460945</v>
+        <v>5.893800357392365</v>
       </c>
       <c r="C11">
-        <v>0.238220024434753</v>
+        <v>0.8022587690672935</v>
       </c>
       <c r="D11">
-        <v>0.1129532542650367</v>
+        <v>0.3463813907624882</v>
       </c>
       <c r="E11">
-        <v>0.07112108675379325</v>
+        <v>0.04148450328246511</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.484984835592229</v>
+        <v>4.612598441667899</v>
       </c>
       <c r="H11">
-        <v>1.814290191105783</v>
+        <v>2.358423000995629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2864624392288988</v>
+        <v>0.540799893023447</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.441884499344326</v>
+        <v>6.063576067880831</v>
       </c>
       <c r="C12">
-        <v>0.2437212372405497</v>
+        <v>0.8235010301704904</v>
       </c>
       <c r="D12">
-        <v>0.1153050421101085</v>
+        <v>0.3566090937018345</v>
       </c>
       <c r="E12">
-        <v>0.07113679257140326</v>
+        <v>0.04186883077485426</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.509760541113735</v>
+        <v>4.735601551090554</v>
       </c>
       <c r="H12">
-        <v>1.824407362856903</v>
+        <v>2.414239336935964</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2896062891172306</v>
+        <v>0.5559413900497532</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.433754677070851</v>
+        <v>6.026895038145312</v>
       </c>
       <c r="C13">
-        <v>0.2425367261945723</v>
+        <v>0.8189132093038722</v>
       </c>
       <c r="D13">
-        <v>0.1147981805730041</v>
+        <v>0.3543984787099959</v>
       </c>
       <c r="E13">
-        <v>0.07113327087970589</v>
+        <v>0.04178539686428095</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.504414988250403</v>
+        <v>4.708980030654232</v>
       </c>
       <c r="H13">
-        <v>1.822222125259941</v>
+        <v>2.402154597750268</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2889280780375714</v>
+        <v>0.5526684995832767</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.40727538962966</v>
+        <v>5.907715955096592</v>
       </c>
       <c r="C14">
-        <v>0.2386727362544434</v>
+        <v>0.8040006475775385</v>
       </c>
       <c r="D14">
-        <v>0.1131465745061888</v>
+        <v>0.3472193174474256</v>
       </c>
       <c r="E14">
-        <v>0.07112231618891052</v>
+        <v>0.04151582658248287</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.487018800413523</v>
+        <v>4.622659839103449</v>
       </c>
       <c r="H14">
-        <v>1.815119690108247</v>
+        <v>2.362986677965409</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2867205782657152</v>
+        <v>0.5420402969039486</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.391082021968259</v>
+        <v>5.835049416847028</v>
       </c>
       <c r="C15">
-        <v>0.236305124441941</v>
+        <v>0.7949030915858941</v>
       </c>
       <c r="D15">
-        <v>0.1121359739476162</v>
+        <v>0.3428444634516978</v>
       </c>
       <c r="E15">
-        <v>0.0711160134022375</v>
+        <v>0.04135261302636373</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.476391349845358</v>
+        <v>4.570160381781932</v>
       </c>
       <c r="H15">
-        <v>1.810787727709851</v>
+        <v>2.339177795512455</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2853717160594869</v>
+        <v>0.5355642931715892</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.298680848942752</v>
+        <v>5.423415231509864</v>
       </c>
       <c r="C16">
-        <v>0.2227247034451807</v>
+        <v>0.7432904763550141</v>
       </c>
       <c r="D16">
-        <v>0.1063606395876633</v>
+        <v>0.3180977948341166</v>
       </c>
       <c r="E16">
-        <v>0.07108612793929581</v>
+        <v>0.0404451362866034</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.415919010780414</v>
+        <v>4.274694121796472</v>
       </c>
       <c r="H16">
-        <v>1.786244902932651</v>
+        <v>2.205373233383341</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2776922564144826</v>
+        <v>0.4989431343864368</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.242347964615931</v>
+        <v>5.174822920674274</v>
       </c>
       <c r="C17">
-        <v>0.2143820640648357</v>
+        <v>0.712049939040611</v>
       </c>
       <c r="D17">
-        <v>0.1028317556032192</v>
+        <v>0.3031825223606006</v>
       </c>
       <c r="E17">
-        <v>0.07107334627668749</v>
+        <v>0.03991184680712223</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.379200778414884</v>
+        <v>4.097885274739667</v>
       </c>
       <c r="H17">
-        <v>1.77143869091779</v>
+        <v>2.125470881157582</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2730258668335779</v>
+        <v>0.4768816902134603</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.210075627995252</v>
+        <v>5.033156894399326</v>
       </c>
       <c r="C18">
-        <v>0.2095792768520823</v>
+        <v>0.6942201532980334</v>
       </c>
       <c r="D18">
-        <v>0.1008071410741422</v>
+        <v>0.2946928248344136</v>
       </c>
       <c r="E18">
-        <v>0.07106803105757109</v>
+        <v>0.03961318759085763</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.358219550236811</v>
+        <v>3.997691697867026</v>
       </c>
       <c r="H18">
-        <v>1.763013826044158</v>
+        <v>2.080252296269435</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2703582372120792</v>
+        <v>0.4643288419932219</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.19917084317774</v>
+        <v>4.985406133384402</v>
       </c>
       <c r="C19">
-        <v>0.2079523841171351</v>
+        <v>0.6882057135293849</v>
       </c>
       <c r="D19">
-        <v>0.1001225113808317</v>
+        <v>0.2918329056021349</v>
       </c>
       <c r="E19">
-        <v>0.07106658080870076</v>
+        <v>0.03951340586964491</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.351139261054669</v>
+        <v>3.964013950476385</v>
       </c>
       <c r="H19">
-        <v>1.760176931408239</v>
+        <v>2.065063376408403</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2694578253225473</v>
+        <v>0.4601009704051648</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.248331347625708</v>
+        <v>5.201146870843274</v>
       </c>
       <c r="C20">
-        <v>0.2152705973402362</v>
+        <v>0.7153608184580378</v>
       </c>
       <c r="D20">
-        <v>0.1032068811888109</v>
+        <v>0.3047608640284238</v>
       </c>
       <c r="E20">
-        <v>0.07107449605303451</v>
+        <v>0.0399677691735274</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.383095170421598</v>
+        <v>4.11654852912676</v>
       </c>
       <c r="H20">
-        <v>1.773005377114373</v>
+        <v>2.133898766693704</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.273520917654011</v>
+        <v>0.4792157945443307</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.415047584618321</v>
+        <v>5.942651291817583</v>
       </c>
       <c r="C21">
-        <v>0.2398078512528343</v>
+        <v>0.8083730497519639</v>
       </c>
       <c r="D21">
-        <v>0.1136314707883628</v>
+        <v>0.3493232479681865</v>
       </c>
       <c r="E21">
-        <v>0.0711254489487434</v>
+        <v>0.04159460527600523</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.492122594431692</v>
+        <v>4.647935335720831</v>
       </c>
       <c r="H21">
-        <v>1.817201991991396</v>
+        <v>2.374452784405207</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2873682873182588</v>
+        <v>0.5451548763620764</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.525166584621275</v>
+        <v>6.441868114432282</v>
       </c>
       <c r="C22">
-        <v>0.2558080045952522</v>
+        <v>0.8707649739035048</v>
       </c>
       <c r="D22">
-        <v>0.1204915994177611</v>
+        <v>0.379434643304009</v>
       </c>
       <c r="E22">
-        <v>0.07117696780766103</v>
+        <v>0.04274167699986009</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.564637541667594</v>
+        <v>5.011604806490027</v>
       </c>
       <c r="H22">
-        <v>1.846912716816234</v>
+        <v>2.539667375967326</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2965656194040776</v>
+        <v>0.58974099915811</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.466287193287712</v>
+        <v>6.173937739543305</v>
       </c>
       <c r="C23">
-        <v>0.2472716437804365</v>
+        <v>0.8372989330362941</v>
       </c>
       <c r="D23">
-        <v>0.1168258363912713</v>
+        <v>0.3632629860998833</v>
       </c>
       <c r="E23">
-        <v>0.07114780016237887</v>
+        <v>0.04212115761351498</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.525818307354655</v>
+        <v>4.815848898826914</v>
       </c>
       <c r="H23">
-        <v>1.830979366023826</v>
+        <v>2.450681756374308</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2916432736241887</v>
+        <v>0.5657933367589578</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.245625904634551</v>
+        <v>5.1892419400574</v>
       </c>
       <c r="C24">
-        <v>0.2148689116937703</v>
+        <v>0.7138635662123249</v>
       </c>
       <c r="D24">
-        <v>0.1030372738842686</v>
+        <v>0.3040470321125355</v>
       </c>
       <c r="E24">
-        <v>0.0710739699074221</v>
+        <v>0.0399424620774127</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.381334115642289</v>
+        <v>4.108106367449551</v>
       </c>
       <c r="H24">
-        <v>1.772296806122029</v>
+        <v>2.130086296967335</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.273297058038878</v>
+        <v>0.478160142175085</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.012525189863993</v>
+        <v>4.176325371333519</v>
       </c>
       <c r="C25">
-        <v>0.1797508009542526</v>
+        <v>0.5858886277845556</v>
       </c>
       <c r="D25">
-        <v>0.08835833191416498</v>
+        <v>0.2435050009610649</v>
       </c>
       <c r="E25">
-        <v>0.07107213990658323</v>
+        <v>0.03789625496852977</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.23074782037142</v>
+        <v>3.400929097544832</v>
       </c>
       <c r="H25">
-        <v>1.712480115276492</v>
+        <v>1.811967071961078</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2541319492743526</v>
+        <v>0.3887337622422393</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.460416637953756</v>
+        <v>1.351281308520072</v>
       </c>
       <c r="C2">
-        <v>0.4945394894448896</v>
+        <v>0.1491418074449342</v>
       </c>
       <c r="D2">
-        <v>0.200953682492937</v>
+        <v>0.1923548596353442</v>
       </c>
       <c r="E2">
-        <v>0.03659889692042029</v>
+        <v>0.05042614551800639</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.915623600409447</v>
+        <v>1.11977543121256</v>
       </c>
       <c r="H2">
-        <v>1.595430118807826</v>
+        <v>0.004634205998042762</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007556501831506246</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.748776427729382</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.801587933604111</v>
       </c>
       <c r="L2">
-        <v>0.3260680723996643</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.288141123535866</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2903989078861002</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.264972689695213</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.988819204854508</v>
+        <v>1.17948941894528</v>
       </c>
       <c r="C3">
-        <v>0.4337957706493967</v>
+        <v>0.1294044486980681</v>
       </c>
       <c r="D3">
-        <v>0.1730364914551075</v>
+        <v>0.1669564589535355</v>
       </c>
       <c r="E3">
-        <v>0.03582873011971799</v>
+        <v>0.04472358112574248</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.603505272851663</v>
+        <v>1.048976767527137</v>
       </c>
       <c r="H3">
-        <v>1.457218926062239</v>
+        <v>0.006899162990054941</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01047941964371812</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7199408706562025</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7674075844792227</v>
       </c>
       <c r="L3">
-        <v>0.2850877392442612</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.120153632200356</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2543881505037291</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.285592137449221</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704532956350363</v>
+        <v>1.073828220876948</v>
       </c>
       <c r="C4">
-        <v>0.3968979261555319</v>
+        <v>0.117511346410538</v>
       </c>
       <c r="D4">
-        <v>0.1562524440317219</v>
+        <v>0.1514973084268547</v>
       </c>
       <c r="E4">
-        <v>0.0354035402968087</v>
+        <v>0.04121837357578784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.41864711607613</v>
+        <v>1.005969697421008</v>
       </c>
       <c r="H4">
-        <v>1.375864205221148</v>
+        <v>0.008572688952629803</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01262916249671564</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7025475169657085</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7465521728069007</v>
       </c>
       <c r="L4">
-        <v>0.260520831662177</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.017232287214995</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2323189279521074</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.298567883816567</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.589823037632698</v>
+        <v>1.029724357094523</v>
       </c>
       <c r="C5">
-        <v>0.3819390961750457</v>
+        <v>0.1129347983477373</v>
       </c>
       <c r="D5">
-        <v>0.1494898116306445</v>
+        <v>0.1452263789414872</v>
       </c>
       <c r="E5">
-        <v>0.03524144873786561</v>
+        <v>0.03975105903067977</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.344823394760226</v>
+        <v>0.9874002976809209</v>
       </c>
       <c r="H5">
-        <v>1.343499904101662</v>
+        <v>0.009328244049906842</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01368023401149143</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.694949114302716</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7372308938408949</v>
       </c>
       <c r="L5">
-        <v>0.2506408344539608</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9750037647823433</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2233750012357518</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.303138650726247</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57083919095578</v>
+        <v>1.021184129307954</v>
       </c>
       <c r="C6">
-        <v>0.3794592370559258</v>
+        <v>0.1124473773905805</v>
       </c>
       <c r="D6">
-        <v>0.1483711803000318</v>
+        <v>0.1441852471719045</v>
       </c>
       <c r="E6">
-        <v>0.03521518608476626</v>
+        <v>0.03946211836544222</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.332650619965023</v>
+        <v>0.9829186552558866</v>
       </c>
       <c r="H6">
-        <v>1.338170883254691</v>
+        <v>0.009464440514077493</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01397641324113152</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6929780823212894</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7346444269569048</v>
       </c>
       <c r="L6">
-        <v>0.2490076870754763</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9675917378444865</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2219420965915617</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.302935142408728</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.70298156136522</v>
+        <v>1.06990743790945</v>
       </c>
       <c r="C7">
-        <v>0.3966959016850637</v>
+        <v>0.1181871609838083</v>
       </c>
       <c r="D7">
-        <v>0.1561609450977954</v>
+        <v>0.1514081607752615</v>
       </c>
       <c r="E7">
-        <v>0.0354013100461632</v>
+        <v>0.04107488849760621</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.417645648551343</v>
+        <v>1.001880633125609</v>
       </c>
       <c r="H7">
-        <v>1.375424654041865</v>
+        <v>0.008599694285709752</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01294324218183807</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7004960689046698</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7435838755157604</v>
       </c>
       <c r="L7">
-        <v>0.2603870783927533</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.015559213245723</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2323403994375326</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.296002148940559</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.296595652824863</v>
+        <v>1.287626189148227</v>
       </c>
       <c r="C8">
-        <v>0.4734976053922821</v>
+        <v>0.1432693056777907</v>
       </c>
       <c r="D8">
-        <v>0.1912455769940635</v>
+        <v>0.1835598808422532</v>
       </c>
       <c r="E8">
-        <v>0.03632292890846855</v>
+        <v>0.04829462892747216</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.806471734337862</v>
+        <v>1.090173438425836</v>
       </c>
       <c r="H8">
-        <v>1.546987703382115</v>
+        <v>0.00537167998060939</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.008843711842629887</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7361905911411526</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7860108198102722</v>
       </c>
       <c r="L8">
-        <v>0.3118028455068185</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.22868002574512</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2781614022610626</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.268606424405341</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.512134530189144</v>
+        <v>1.719651354188159</v>
       </c>
       <c r="C9">
-        <v>0.6284562836842156</v>
+        <v>0.1932276213754847</v>
       </c>
       <c r="D9">
-        <v>0.2635333985042649</v>
+        <v>0.2478885654361846</v>
       </c>
       <c r="E9">
-        <v>0.038549864376483</v>
+        <v>0.06269709581662397</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.632864294736777</v>
+        <v>1.274451577736698</v>
       </c>
       <c r="H9">
-        <v>1.916008748809361</v>
+        <v>0.001408586948811186</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003349335540266729</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8123986581656624</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8755601977623471</v>
       </c>
       <c r="L9">
-        <v>0.4182905787258306</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.651138117794886</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3682499024044148</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.22213803518023</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.451968880987749</v>
+        <v>2.020387848450071</v>
       </c>
       <c r="C10">
-        <v>0.746875207638027</v>
+        <v>0.2341620494212577</v>
       </c>
       <c r="D10">
-        <v>0.3198124205722763</v>
+        <v>0.296160302215398</v>
       </c>
       <c r="E10">
-        <v>0.04050712003841817</v>
+        <v>0.06941557521235353</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.295082198476308</v>
+        <v>1.392171179487292</v>
       </c>
       <c r="H10">
-        <v>2.214595243076019</v>
+        <v>0.0003874996733479463</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001562488342480073</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8598541307244147</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9278873751583276</v>
       </c>
       <c r="L10">
-        <v>0.501479839624821</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.955996668482157</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.416245375048689</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.177228011205806</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.893800357392365</v>
+        <v>2.020165599235384</v>
       </c>
       <c r="C11">
-        <v>0.8022587690672935</v>
+        <v>0.2739852936409761</v>
       </c>
       <c r="D11">
-        <v>0.3463813907624882</v>
+        <v>0.317970693962323</v>
       </c>
       <c r="E11">
-        <v>0.04148450328246511</v>
+        <v>0.04457749100007646</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.612598441667899</v>
+        <v>1.277005613519833</v>
       </c>
       <c r="H11">
-        <v>2.358423000995629</v>
+        <v>0.01895437773216102</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0018332129805394</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7968801067538891</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8366375824645971</v>
       </c>
       <c r="L11">
-        <v>0.540799893023447</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.026771408723306</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2900423777228411</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.063558326751739</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.063576067880831</v>
+        <v>1.960986571430851</v>
       </c>
       <c r="C12">
-        <v>0.8235010301704904</v>
+        <v>0.299037167481103</v>
       </c>
       <c r="D12">
-        <v>0.3566090937018345</v>
+        <v>0.3260976738330044</v>
       </c>
       <c r="E12">
-        <v>0.04186883077485426</v>
+        <v>0.03044117753487985</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.735601551090554</v>
+        <v>1.164267318915009</v>
       </c>
       <c r="H12">
-        <v>2.414239336935964</v>
+        <v>0.05770188395822373</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001818480998107219</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7381492622502606</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7566808987015818</v>
       </c>
       <c r="L12">
-        <v>0.5559413900497532</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.022572991492694</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1933642637203263</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.9914972632213832</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.026895038145312</v>
+        <v>1.848147744298643</v>
       </c>
       <c r="C13">
-        <v>0.8189132093038722</v>
+        <v>0.3149843176880722</v>
       </c>
       <c r="D13">
-        <v>0.3543984787099959</v>
+        <v>0.3239970137989445</v>
       </c>
       <c r="E13">
-        <v>0.04178539686428095</v>
+        <v>0.02347281098029186</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.708980030654232</v>
+        <v>1.040971961282892</v>
       </c>
       <c r="H13">
-        <v>2.402154597750268</v>
+        <v>0.1136235483791097</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001958035752320342</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6762375165043153</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6764492839164404</v>
       </c>
       <c r="L13">
-        <v>0.5526684995832767</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.958523284252266</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.114521057721106</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.9425553991348501</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.907715955096592</v>
+        <v>1.744651960442894</v>
       </c>
       <c r="C14">
-        <v>0.8040006475775385</v>
+        <v>0.3223609799875646</v>
       </c>
       <c r="D14">
-        <v>0.3472193174474256</v>
+        <v>0.3179017275011233</v>
       </c>
       <c r="E14">
-        <v>0.04151582658248287</v>
+        <v>0.02291108110148299</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.622659839103449</v>
+        <v>0.9501502287590569</v>
       </c>
       <c r="H14">
-        <v>2.362986677965409</v>
+        <v>0.1631579067587126</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002253689021054051</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.63152551932275</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6204356868270864</v>
       </c>
       <c r="L14">
-        <v>0.5420402969039486</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.886578393207202</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07061746710616035</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.9196483706249268</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.835049416847028</v>
+        <v>1.707092009776574</v>
       </c>
       <c r="C15">
-        <v>0.7949030915858941</v>
+        <v>0.3223847733376317</v>
       </c>
       <c r="D15">
-        <v>0.3428444634516978</v>
+        <v>0.3142416111707576</v>
       </c>
       <c r="E15">
-        <v>0.04135261302636373</v>
+        <v>0.02325535077410645</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.570160381781932</v>
+        <v>0.9243267853948396</v>
       </c>
       <c r="H15">
-        <v>2.339177795512455</v>
+        <v>0.1757590442062735</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002507519325420482</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6192434577860837</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6055443012077006</v>
       </c>
       <c r="L15">
-        <v>0.5355642931715892</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.856132242866039</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0612343833726996</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.9171679448862182</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.423415231509864</v>
+        <v>1.601630770092868</v>
       </c>
       <c r="C16">
-        <v>0.7432904763550141</v>
+        <v>0.3010988848399734</v>
       </c>
       <c r="D16">
-        <v>0.3180977948341166</v>
+        <v>0.2936096859764348</v>
       </c>
       <c r="E16">
-        <v>0.0404451362866034</v>
+        <v>0.02200707574542937</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.274694121796472</v>
+        <v>0.8982869706219105</v>
       </c>
       <c r="H16">
-        <v>2.205373233383341</v>
+        <v>0.1635216426694939</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003329231994186443</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6109155937215149</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5989627536823861</v>
       </c>
       <c r="L16">
-        <v>0.4989431343864368</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.738213219436119</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05941231742009023</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9436182372518882</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.174822920674274</v>
+        <v>1.575190644098598</v>
       </c>
       <c r="C17">
-        <v>0.712049939040611</v>
+        <v>0.2809589216458477</v>
       </c>
       <c r="D17">
-        <v>0.3031825223606006</v>
+        <v>0.2811101175688293</v>
       </c>
       <c r="E17">
-        <v>0.03991184680712223</v>
+        <v>0.02057395078931967</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.097885274739667</v>
+        <v>0.9258557096543285</v>
       </c>
       <c r="H17">
-        <v>2.125470881157582</v>
+        <v>0.1260425087843942</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003851984695333321</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6280029116518762</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.62303893124475</v>
       </c>
       <c r="L17">
-        <v>0.4768816902134603</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.686022644978578</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07905053547577978</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9754243677049317</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.033156894399326</v>
+        <v>1.616356988618207</v>
       </c>
       <c r="C18">
-        <v>0.6942201532980334</v>
+        <v>0.2591865800837212</v>
       </c>
       <c r="D18">
-        <v>0.2946928248344136</v>
+        <v>0.2740754570509836</v>
       </c>
       <c r="E18">
-        <v>0.03961318759085763</v>
+        <v>0.02275195414508291</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.997691697867026</v>
+        <v>1.007451185279237</v>
       </c>
       <c r="H18">
-        <v>2.080252296269435</v>
+        <v>0.07323103946630027</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003729515255428417</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6711919550724446</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6802559940812003</v>
       </c>
       <c r="L18">
-        <v>0.4643288419932219</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.684737370327639</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1295156342440933</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.021908467693471</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.985406133384402</v>
+        <v>1.703664931789319</v>
       </c>
       <c r="C19">
-        <v>0.6882057135293849</v>
+        <v>0.2401171372695359</v>
       </c>
       <c r="D19">
-        <v>0.2918329056021349</v>
+        <v>0.2718861845656306</v>
       </c>
       <c r="E19">
-        <v>0.03951340586964491</v>
+        <v>0.0335049468631663</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.964013950476385</v>
+        <v>1.124463929550018</v>
       </c>
       <c r="H19">
-        <v>2.065063376408403</v>
+        <v>0.02766671346701344</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003631235366705177</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7309521485369856</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7593413533342641</v>
       </c>
       <c r="L19">
-        <v>0.4601009704051648</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.722184617362984</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2169246966488174</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.082103792914751</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.201146870843274</v>
+        <v>1.930059322341265</v>
       </c>
       <c r="C20">
-        <v>0.7153608184580378</v>
+        <v>0.2257411293814613</v>
       </c>
       <c r="D20">
-        <v>0.3047608640284238</v>
+        <v>0.2833753189825927</v>
       </c>
       <c r="E20">
-        <v>0.0399677691735274</v>
+        <v>0.06708850316240955</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.11654852912676</v>
+        <v>1.348243082029796</v>
       </c>
       <c r="H20">
-        <v>2.133898766693704</v>
+        <v>0.0005389832182065568</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002725622940375594</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8408179666285207</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.904718849807324</v>
       </c>
       <c r="L20">
-        <v>0.4792157945443307</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.871805563262114</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4032748168107361</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.180810382793084</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.942651291817583</v>
+        <v>2.18659818474697</v>
       </c>
       <c r="C21">
-        <v>0.8083730497519639</v>
+        <v>0.2540826206994495</v>
       </c>
       <c r="D21">
-        <v>0.3493232479681865</v>
+        <v>0.3209142999761951</v>
       </c>
       <c r="E21">
-        <v>0.04159460527600523</v>
+        <v>0.07838007309634065</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.647935335720831</v>
+        <v>1.472168608114146</v>
       </c>
       <c r="H21">
-        <v>2.374452784405207</v>
+        <v>5.536816303219894E-07</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001831634436634033</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8941651085478668</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9675351537094627</v>
       </c>
       <c r="L21">
-        <v>0.5451548763620764</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.119357911371139</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4693171020546743</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.166432386526274</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441868114432282</v>
+        <v>2.351393142798656</v>
       </c>
       <c r="C22">
-        <v>0.8707649739035048</v>
+        <v>0.2731697760270606</v>
       </c>
       <c r="D22">
-        <v>0.379434643304009</v>
+        <v>0.3457250556217559</v>
       </c>
       <c r="E22">
-        <v>0.04274167699986009</v>
+        <v>0.08399499896828999</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.011604806490027</v>
+        <v>1.549333994943169</v>
       </c>
       <c r="H22">
-        <v>2.539667375967326</v>
+        <v>0.0001280797823142166</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001410456009116601</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9271602876794418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.005909039544733</v>
       </c>
       <c r="L22">
-        <v>0.58974099915811</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.279688584523541</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5028999046054849</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.154791222690911</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.173937739543305</v>
+        <v>2.267507387397643</v>
       </c>
       <c r="C23">
-        <v>0.8372989330362941</v>
+        <v>0.2620354525581803</v>
       </c>
       <c r="D23">
-        <v>0.3632629860998833</v>
+        <v>0.3324649977646885</v>
       </c>
       <c r="E23">
-        <v>0.04212115761351498</v>
+        <v>0.08114642245585912</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.815848898826914</v>
+        <v>1.51260515900114</v>
       </c>
       <c r="H23">
-        <v>2.450681756374308</v>
+        <v>2.490976592284255E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001280382839079053</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.9117862186037087</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.988741486195245</v>
       </c>
       <c r="L23">
-        <v>0.5657933367589578</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.195419244442434</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4847868054145579</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.163814256286976</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.1892419400574</v>
+        <v>1.944018358476455</v>
       </c>
       <c r="C24">
-        <v>0.7138635662123249</v>
+        <v>0.2222252068519879</v>
       </c>
       <c r="D24">
-        <v>0.3040470321125355</v>
+        <v>0.2828171116555751</v>
       </c>
       <c r="E24">
-        <v>0.0399424620774127</v>
+        <v>0.07020617982617239</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.108106367449551</v>
+        <v>1.368357586818178</v>
       </c>
       <c r="H24">
-        <v>2.130086296967335</v>
+        <v>0.0003829237072043856</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002192847268116971</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8510579810783838</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9192006637608188</v>
       </c>
       <c r="L24">
-        <v>0.478160142175085</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.875867597313487</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4168150652521661</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.194487874098179</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.176325371333519</v>
+        <v>1.596641345182746</v>
       </c>
       <c r="C25">
-        <v>0.5858886277845556</v>
+        <v>0.1808019921064385</v>
       </c>
       <c r="D25">
-        <v>0.2435050009610649</v>
+        <v>0.2303095723252255</v>
       </c>
       <c r="E25">
-        <v>0.03789625496852977</v>
+        <v>0.0585622437360982</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.400929097544832</v>
+        <v>1.217101735695564</v>
       </c>
       <c r="H25">
-        <v>1.811967071961078</v>
+        <v>0.002217918683359965</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00497014395530293</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7879412356443964</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8460341738650072</v>
       </c>
       <c r="L25">
-        <v>0.3887337622422393</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.534404017481592</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3440634180018094</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.229867881717013</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.351281308520072</v>
+        <v>1.225931271599819</v>
       </c>
       <c r="C2">
-        <v>0.1491418074449342</v>
+        <v>0.1702891767451433</v>
       </c>
       <c r="D2">
-        <v>0.1923548596353442</v>
+        <v>0.1928323602843705</v>
       </c>
       <c r="E2">
-        <v>0.05042614551800639</v>
+        <v>0.04625009834437677</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.11977543121256</v>
+        <v>0.9428361111639276</v>
       </c>
       <c r="H2">
-        <v>0.004634205998042762</v>
+        <v>0.003471163327418036</v>
       </c>
       <c r="I2">
-        <v>0.007556501831506246</v>
+        <v>0.005470582901462961</v>
       </c>
       <c r="J2">
-        <v>0.748776427729382</v>
+        <v>0.6811749731932792</v>
       </c>
       <c r="K2">
-        <v>0.801587933604111</v>
+        <v>0.6700635121876388</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2887910886114611</v>
       </c>
       <c r="M2">
-        <v>1.288141123535866</v>
+        <v>0.2165227138917665</v>
       </c>
       <c r="N2">
-        <v>0.2903989078861002</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.251559965696771</v>
       </c>
       <c r="P2">
-        <v>1.264972689695213</v>
+        <v>0.3016564992261124</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.131250303654674</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.17948941894528</v>
+        <v>1.073585481304917</v>
       </c>
       <c r="C3">
-        <v>0.1294044486980681</v>
+        <v>0.145965773316334</v>
       </c>
       <c r="D3">
-        <v>0.1669564589535355</v>
+        <v>0.1674420967678429</v>
       </c>
       <c r="E3">
-        <v>0.04472358112574248</v>
+        <v>0.04139792039483581</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.048976767527137</v>
+        <v>0.8937191038291417</v>
       </c>
       <c r="H3">
-        <v>0.006899162990054941</v>
+        <v>0.005259475614389164</v>
       </c>
       <c r="I3">
-        <v>0.01047941964371812</v>
+        <v>0.007588182675873245</v>
       </c>
       <c r="J3">
-        <v>0.7199408706562025</v>
+        <v>0.6560664257813471</v>
       </c>
       <c r="K3">
-        <v>0.7674075844792227</v>
+        <v>0.6487900143140592</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2872559725649566</v>
       </c>
       <c r="M3">
-        <v>1.120153632200356</v>
+        <v>0.2035210291223741</v>
       </c>
       <c r="N3">
-        <v>0.2543881505037291</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.090141339312993</v>
       </c>
       <c r="P3">
-        <v>1.285592137449221</v>
+        <v>0.2649163951604265</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.159460791556643</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.073828220876948</v>
+        <v>0.9795688016250494</v>
       </c>
       <c r="C4">
-        <v>0.117511346410538</v>
+        <v>0.1313342233958394</v>
       </c>
       <c r="D4">
-        <v>0.1514973084268547</v>
+        <v>0.151976731029805</v>
       </c>
       <c r="E4">
-        <v>0.04121837357578784</v>
+        <v>0.03840381589584219</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.005969697421008</v>
+        <v>0.8639838005951788</v>
       </c>
       <c r="H4">
-        <v>0.008572688952629803</v>
+        <v>0.006590283939556796</v>
       </c>
       <c r="I4">
-        <v>0.01262916249671564</v>
+        <v>0.009169927981020898</v>
       </c>
       <c r="J4">
-        <v>0.7025475169657085</v>
+        <v>0.6405982270338626</v>
       </c>
       <c r="K4">
-        <v>0.7465521728069007</v>
+        <v>0.6357073439042367</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2860994428828896</v>
       </c>
       <c r="M4">
-        <v>1.017232287214995</v>
+        <v>0.1962623306155358</v>
       </c>
       <c r="N4">
-        <v>0.2323189279521074</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9910564921356411</v>
       </c>
       <c r="P4">
-        <v>1.298567883816567</v>
+        <v>0.2423938654429918</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.177101108197803</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.029724357094523</v>
+        <v>0.9402190993549482</v>
       </c>
       <c r="C5">
-        <v>0.1129347983477373</v>
+        <v>0.1256827769270359</v>
       </c>
       <c r="D5">
-        <v>0.1452263789414872</v>
+        <v>0.1457009346622868</v>
       </c>
       <c r="E5">
-        <v>0.03975105903067977</v>
+        <v>0.03714567695535287</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9874002976809209</v>
+        <v>0.8509543348089892</v>
       </c>
       <c r="H5">
-        <v>0.009328244049906842</v>
+        <v>0.007193179650351877</v>
       </c>
       <c r="I5">
-        <v>0.01368023401149143</v>
+        <v>0.009982321762855406</v>
       </c>
       <c r="J5">
-        <v>0.694949114302716</v>
+        <v>0.6337446927460206</v>
       </c>
       <c r="K5">
-        <v>0.7372308938408949</v>
+        <v>0.6296346769052477</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.285249269459694</v>
       </c>
       <c r="M5">
-        <v>0.9750037647823433</v>
+        <v>0.1932593099017232</v>
       </c>
       <c r="N5">
-        <v>0.2233750012357518</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9503628740662293</v>
       </c>
       <c r="P5">
-        <v>1.303138650726247</v>
+        <v>0.2332627892334358</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.183751434298721</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.021184129307954</v>
+        <v>0.9325614820544104</v>
       </c>
       <c r="C6">
-        <v>0.1124473773905805</v>
+        <v>0.1250447683431588</v>
       </c>
       <c r="D6">
-        <v>0.1441852471719045</v>
+        <v>0.1446589889668388</v>
       </c>
       <c r="E6">
-        <v>0.03946211836544222</v>
+        <v>0.03689550626835469</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9829186552558866</v>
+        <v>0.8475649857245315</v>
       </c>
       <c r="H6">
-        <v>0.009464440514077493</v>
+        <v>0.007302076061286356</v>
       </c>
       <c r="I6">
-        <v>0.01397641324113152</v>
+        <v>0.01025203693725274</v>
       </c>
       <c r="J6">
-        <v>0.6929780823212894</v>
+        <v>0.631951339765962</v>
       </c>
       <c r="K6">
-        <v>0.7346444269569048</v>
+        <v>0.6277297605067247</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.284708754266795</v>
       </c>
       <c r="M6">
-        <v>0.9675917378444865</v>
+        <v>0.1924956208738813</v>
       </c>
       <c r="N6">
-        <v>0.2219420965915617</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9432243460491065</v>
       </c>
       <c r="P6">
-        <v>1.302935142408728</v>
+        <v>0.2317968464685833</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.18411075071462</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.06990743790945</v>
+        <v>0.975146185273843</v>
       </c>
       <c r="C7">
-        <v>0.1181871609838083</v>
+        <v>0.1315922039131152</v>
       </c>
       <c r="D7">
-        <v>0.1514081607752615</v>
+        <v>0.1518850354940611</v>
       </c>
       <c r="E7">
-        <v>0.04107488849760621</v>
+        <v>0.03832113707623996</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.001880633125609</v>
+        <v>0.8639314445949111</v>
       </c>
       <c r="H7">
-        <v>0.008599694285709752</v>
+        <v>0.006619156704841755</v>
       </c>
       <c r="I7">
-        <v>0.01294324218183807</v>
+        <v>0.009528427256308092</v>
       </c>
       <c r="J7">
-        <v>0.7004960689046698</v>
+        <v>0.6316433797448013</v>
       </c>
       <c r="K7">
-        <v>0.7435838755157604</v>
+        <v>0.6320529634269363</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2845362229888586</v>
       </c>
       <c r="M7">
-        <v>1.015559213245723</v>
+        <v>0.1950935929163258</v>
       </c>
       <c r="N7">
-        <v>0.2323403994375326</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9879448677992286</v>
       </c>
       <c r="P7">
-        <v>1.296002148940559</v>
+        <v>0.2422967258046071</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.174109917789131</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.287626189148227</v>
+        <v>1.16661764289293</v>
       </c>
       <c r="C8">
-        <v>0.1432693056777907</v>
+        <v>0.1613130987071543</v>
       </c>
       <c r="D8">
-        <v>0.1835598808422532</v>
+        <v>0.1840324148879091</v>
       </c>
       <c r="E8">
-        <v>0.04829462892747216</v>
+        <v>0.0445865109622261</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.090173438425836</v>
+        <v>0.9330503242710648</v>
       </c>
       <c r="H8">
-        <v>0.00537167998060939</v>
+        <v>0.004068910348022259</v>
       </c>
       <c r="I8">
-        <v>0.008843711842629887</v>
+        <v>0.006570663438336233</v>
       </c>
       <c r="J8">
-        <v>0.7361905911411526</v>
+        <v>0.6469335496638706</v>
       </c>
       <c r="K8">
-        <v>0.7860108198102722</v>
+        <v>0.6558105802478664</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2854652461370577</v>
       </c>
       <c r="M8">
-        <v>1.22868002574512</v>
+        <v>0.2095358113631818</v>
       </c>
       <c r="N8">
-        <v>0.2781614022610626</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.189394922538412</v>
       </c>
       <c r="P8">
-        <v>1.268606424405341</v>
+        <v>0.288791482930705</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.134992175287135</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.719651354188159</v>
+        <v>1.547156069976865</v>
       </c>
       <c r="C9">
-        <v>0.1932276213754847</v>
+        <v>0.2225758159564606</v>
       </c>
       <c r="D9">
-        <v>0.2478885654361846</v>
+        <v>0.248253482815457</v>
       </c>
       <c r="E9">
-        <v>0.06269709581662397</v>
+        <v>0.05682553816025937</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.274451577736698</v>
+        <v>1.065748912961851</v>
       </c>
       <c r="H9">
-        <v>0.001408586948811186</v>
+        <v>0.0009856019752578771</v>
       </c>
       <c r="I9">
-        <v>0.003349335540266729</v>
+        <v>0.002584451420211131</v>
       </c>
       <c r="J9">
-        <v>0.8123986581656624</v>
+        <v>0.70501957255577</v>
       </c>
       <c r="K9">
-        <v>0.8755601977623471</v>
+        <v>0.7107908334961408</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2891392196218803</v>
       </c>
       <c r="M9">
-        <v>1.651138117794886</v>
+        <v>0.2464848544052387</v>
       </c>
       <c r="N9">
-        <v>0.3682499024044148</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.592619973353237</v>
       </c>
       <c r="P9">
-        <v>1.22213803518023</v>
+        <v>0.3805416982630732</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.068211012563872</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.020387848450071</v>
+        <v>1.806155132260272</v>
       </c>
       <c r="C10">
-        <v>0.2341620494212577</v>
+        <v>0.2691229363406364</v>
       </c>
       <c r="D10">
-        <v>0.296160302215398</v>
+        <v>0.296332707228359</v>
       </c>
       <c r="E10">
-        <v>0.06941557521235353</v>
+        <v>0.06248518739513997</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.392171179487292</v>
+        <v>1.170502558894825</v>
       </c>
       <c r="H10">
-        <v>0.0003874996733479463</v>
+        <v>0.0002983214329170814</v>
       </c>
       <c r="I10">
-        <v>0.001562488342480073</v>
+        <v>0.001478355158283762</v>
       </c>
       <c r="J10">
-        <v>0.8598541307244147</v>
+        <v>0.6998796051792908</v>
       </c>
       <c r="K10">
-        <v>0.9278873751583276</v>
+        <v>0.7339665242589106</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2846191865793202</v>
       </c>
       <c r="M10">
-        <v>1.955996668482157</v>
+        <v>0.2704722595490594</v>
       </c>
       <c r="N10">
-        <v>0.416245375048689</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.873724089714926</v>
       </c>
       <c r="P10">
-        <v>1.177228011205806</v>
+        <v>0.4286675101091362</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.007841625670984</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.020165599235384</v>
+        <v>1.802988330264327</v>
       </c>
       <c r="C11">
-        <v>0.2739852936409761</v>
+        <v>0.3043518984742093</v>
       </c>
       <c r="D11">
-        <v>0.317970693962323</v>
+        <v>0.3180528162066025</v>
       </c>
       <c r="E11">
-        <v>0.04457749100007646</v>
+        <v>0.04006800198998128</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.277005613519833</v>
+        <v>1.1176124817474</v>
       </c>
       <c r="H11">
-        <v>0.01895437773216102</v>
+        <v>0.01888336580491767</v>
       </c>
       <c r="I11">
-        <v>0.0018332129805394</v>
+        <v>0.001967924833479628</v>
       </c>
       <c r="J11">
-        <v>0.7968801067538891</v>
+        <v>0.5754517575928304</v>
       </c>
       <c r="K11">
-        <v>0.8366375824645971</v>
+        <v>0.6486100654312068</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2489702488651666</v>
       </c>
       <c r="M11">
-        <v>2.026771408723306</v>
+        <v>0.2433687931759039</v>
       </c>
       <c r="N11">
-        <v>0.2900423777228411</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.925265954349584</v>
       </c>
       <c r="P11">
-        <v>1.063558326751739</v>
+        <v>0.2988301311787325</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9191169356906741</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.960986571430851</v>
+        <v>1.753052518289081</v>
       </c>
       <c r="C12">
-        <v>0.299037167481103</v>
+        <v>0.3253433961519079</v>
       </c>
       <c r="D12">
-        <v>0.3260976738330044</v>
+        <v>0.3261671174772545</v>
       </c>
       <c r="E12">
-        <v>0.03044117753487985</v>
+        <v>0.02761676046554662</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.164267318915009</v>
+        <v>1.043524204191883</v>
       </c>
       <c r="H12">
-        <v>0.05770188395822373</v>
+        <v>0.05761988077286873</v>
       </c>
       <c r="I12">
-        <v>0.001818480998107219</v>
+        <v>0.001961296982917027</v>
       </c>
       <c r="J12">
-        <v>0.7381492622502606</v>
+        <v>0.5044375615120629</v>
       </c>
       <c r="K12">
-        <v>0.7566808987015818</v>
+        <v>0.5830446724172802</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2244694211373179</v>
       </c>
       <c r="M12">
-        <v>2.022572991492694</v>
+        <v>0.2191767220327421</v>
       </c>
       <c r="N12">
-        <v>0.1933642637203263</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.915671885485295</v>
       </c>
       <c r="P12">
-        <v>0.9914972632213832</v>
+        <v>0.1998434259565585</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8733227221073978</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.848147744298643</v>
+        <v>1.661730966434874</v>
       </c>
       <c r="C13">
-        <v>0.3149843176880722</v>
+        <v>0.3392902666053033</v>
       </c>
       <c r="D13">
-        <v>0.3239970137989445</v>
+        <v>0.3241313391209246</v>
       </c>
       <c r="E13">
-        <v>0.02347281098029186</v>
+        <v>0.02203917756399545</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.040971961282892</v>
+        <v>0.9363872340531145</v>
       </c>
       <c r="H13">
-        <v>0.1136235483791097</v>
+        <v>0.1134950207995615</v>
       </c>
       <c r="I13">
-        <v>0.001958035752320342</v>
+        <v>0.002024105332290915</v>
       </c>
       <c r="J13">
-        <v>0.6762375165043153</v>
+        <v>0.4719298206967721</v>
       </c>
       <c r="K13">
-        <v>0.6764492839164404</v>
+        <v>0.5262976027324058</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2053733973081258</v>
       </c>
       <c r="M13">
-        <v>1.958523284252266</v>
+        <v>0.1954654700215634</v>
       </c>
       <c r="N13">
-        <v>0.114521057721106</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.860731445204664</v>
       </c>
       <c r="P13">
-        <v>0.9425553991348501</v>
+        <v>0.1194828741384271</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8523904617846032</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.744651960442894</v>
+        <v>1.578442222821764</v>
       </c>
       <c r="C14">
-        <v>0.3223609799875646</v>
+        <v>0.3462618048266961</v>
       </c>
       <c r="D14">
-        <v>0.3179017275011233</v>
+        <v>0.3181129220648273</v>
       </c>
       <c r="E14">
-        <v>0.02291108110148299</v>
+        <v>0.0224004579779451</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9501502287590569</v>
+        <v>0.8484813054600409</v>
       </c>
       <c r="H14">
-        <v>0.1631579067587126</v>
+        <v>0.1629710870699483</v>
       </c>
       <c r="I14">
-        <v>0.002253689021054051</v>
+        <v>0.00222816071072085</v>
       </c>
       <c r="J14">
-        <v>0.63152551932275</v>
+        <v>0.4629317355691853</v>
       </c>
       <c r="K14">
-        <v>0.6204356868270864</v>
+        <v>0.489872665710827</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.193933908892916</v>
       </c>
       <c r="M14">
-        <v>1.886578393207202</v>
+        <v>0.1790985523611575</v>
       </c>
       <c r="N14">
-        <v>0.07061746710616035</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.801350928497897</v>
       </c>
       <c r="P14">
-        <v>0.9196483706249268</v>
+        <v>0.074744012888047</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8481329889423952</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.707092009776574</v>
+        <v>1.548197714764598</v>
       </c>
       <c r="C15">
-        <v>0.3223847733376317</v>
+        <v>0.3466605364407087</v>
       </c>
       <c r="D15">
-        <v>0.3142416111707576</v>
+        <v>0.3144860598293207</v>
       </c>
       <c r="E15">
-        <v>0.02325535077410645</v>
+        <v>0.02299677292476776</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9243267853948396</v>
+        <v>0.8203335500375033</v>
       </c>
       <c r="H15">
-        <v>0.1757590442062735</v>
+        <v>0.1755425565016679</v>
       </c>
       <c r="I15">
-        <v>0.002507519325420482</v>
+        <v>0.002454329074653927</v>
       </c>
       <c r="J15">
-        <v>0.6192434577860837</v>
+        <v>0.4660205496512759</v>
       </c>
       <c r="K15">
-        <v>0.6055443012077006</v>
+        <v>0.4813795594409882</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1916084736312342</v>
       </c>
       <c r="M15">
-        <v>1.856132242866039</v>
+        <v>0.1747894824006693</v>
       </c>
       <c r="N15">
-        <v>0.0612343833726996</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.776646760409449</v>
       </c>
       <c r="P15">
-        <v>0.9171679448862182</v>
+        <v>0.06521806304576216</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8502347468404354</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.601630770092868</v>
+        <v>1.463086773190554</v>
       </c>
       <c r="C16">
-        <v>0.3010988848399734</v>
+        <v>0.3288450574422086</v>
       </c>
       <c r="D16">
-        <v>0.2936096859764348</v>
+        <v>0.2939783380020913</v>
       </c>
       <c r="E16">
-        <v>0.02200707574542937</v>
+        <v>0.02199154789118563</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8982869706219105</v>
+        <v>0.769628086139619</v>
       </c>
       <c r="H16">
-        <v>0.1635216426694939</v>
+        <v>0.1631415447256614</v>
       </c>
       <c r="I16">
-        <v>0.003329231994186443</v>
+        <v>0.003027108187323435</v>
       </c>
       <c r="J16">
-        <v>0.6109155937215149</v>
+        <v>0.516021503907993</v>
       </c>
       <c r="K16">
-        <v>0.5989627536823861</v>
+        <v>0.48860047756272</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1974717014216232</v>
       </c>
       <c r="M16">
-        <v>1.738213219436119</v>
+        <v>0.1730577913609928</v>
       </c>
       <c r="N16">
-        <v>0.05941231742009023</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.681070433236329</v>
       </c>
       <c r="P16">
-        <v>0.9436182372518882</v>
+        <v>0.06394151227924283</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8774663511264855</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.575190644098598</v>
+        <v>1.440496379064427</v>
       </c>
       <c r="C17">
-        <v>0.2809589216458477</v>
+        <v>0.3104862432635684</v>
       </c>
       <c r="D17">
-        <v>0.2811101175688293</v>
+        <v>0.2815225555565206</v>
       </c>
       <c r="E17">
-        <v>0.02057395078931967</v>
+        <v>0.0201316908424185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9258557096543285</v>
+        <v>0.780330804275664</v>
       </c>
       <c r="H17">
-        <v>0.1260425087843942</v>
+        <v>0.125564755555402</v>
       </c>
       <c r="I17">
-        <v>0.003851984695333321</v>
+        <v>0.003406949082171984</v>
       </c>
       <c r="J17">
-        <v>0.6280029116518762</v>
+        <v>0.5551350361284335</v>
       </c>
       <c r="K17">
-        <v>0.62303893124475</v>
+        <v>0.5125699249995179</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2081610803190372</v>
       </c>
       <c r="M17">
-        <v>1.686022644978578</v>
+        <v>0.1797154907318905</v>
       </c>
       <c r="N17">
-        <v>0.07905053547577978</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.636926836067687</v>
       </c>
       <c r="P17">
-        <v>0.9754243677049317</v>
+        <v>0.08451414300413518</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.901703019193608</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.616356988618207</v>
+        <v>1.473492362670441</v>
       </c>
       <c r="C18">
-        <v>0.2591865800837212</v>
+        <v>0.2903323539424605</v>
       </c>
       <c r="D18">
-        <v>0.2740754570509836</v>
+        <v>0.2744855451011574</v>
       </c>
       <c r="E18">
-        <v>0.02275195414508291</v>
+        <v>0.02116031352008996</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.007451185279237</v>
+        <v>0.8412023176220771</v>
       </c>
       <c r="H18">
-        <v>0.07323103946630027</v>
+        <v>0.07274088288446023</v>
       </c>
       <c r="I18">
-        <v>0.003729515255428417</v>
+        <v>0.003206941936257479</v>
       </c>
       <c r="J18">
-        <v>0.6711919550724446</v>
+        <v>0.6013822554654524</v>
       </c>
       <c r="K18">
-        <v>0.6802559940812003</v>
+        <v>0.5588959032294696</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2263016380473317</v>
       </c>
       <c r="M18">
-        <v>1.684737370327639</v>
+        <v>0.1960472098687269</v>
       </c>
       <c r="N18">
-        <v>0.1295156342440933</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.636008693504635</v>
       </c>
       <c r="P18">
-        <v>1.021908467693471</v>
+        <v>0.1365890689867584</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9316713125757605</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.703664931789319</v>
+        <v>1.544526675011724</v>
       </c>
       <c r="C19">
-        <v>0.2401171372695359</v>
+        <v>0.2730591963718041</v>
       </c>
       <c r="D19">
-        <v>0.2718861845656306</v>
+        <v>0.272262830752652</v>
       </c>
       <c r="E19">
-        <v>0.0335049468631663</v>
+        <v>0.03013243904198415</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.124463929550018</v>
+        <v>0.9329624142191477</v>
       </c>
       <c r="H19">
-        <v>0.02766671346701344</v>
+        <v>0.0272520993114469</v>
       </c>
       <c r="I19">
-        <v>0.003631235366705177</v>
+        <v>0.003207909005578991</v>
       </c>
       <c r="J19">
-        <v>0.7309521485369856</v>
+        <v>0.6530075127794532</v>
       </c>
       <c r="K19">
-        <v>0.7593413533342641</v>
+        <v>0.6196635110344886</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2490406886254384</v>
       </c>
       <c r="M19">
-        <v>1.722184617362984</v>
+        <v>0.2188708107978172</v>
       </c>
       <c r="N19">
-        <v>0.2169246966488174</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.669186285379396</v>
       </c>
       <c r="P19">
-        <v>1.082103792914751</v>
+        <v>0.2261990125812048</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9685570941019819</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.930059322341265</v>
+        <v>1.731137823606332</v>
       </c>
       <c r="C20">
-        <v>0.2257411293814613</v>
+        <v>0.2612908402005161</v>
       </c>
       <c r="D20">
-        <v>0.2833753189825927</v>
+        <v>0.2836257301277954</v>
       </c>
       <c r="E20">
-        <v>0.06708850316240955</v>
+        <v>0.06032958403462985</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.348243082029796</v>
+        <v>1.118809063072845</v>
       </c>
       <c r="H20">
-        <v>0.0005389832182065568</v>
+        <v>0.0003770774849418679</v>
       </c>
       <c r="I20">
-        <v>0.002725622940375594</v>
+        <v>0.00264078188552741</v>
       </c>
       <c r="J20">
-        <v>0.8408179666285207</v>
+        <v>0.7198877036721143</v>
       </c>
       <c r="K20">
-        <v>0.904718849807324</v>
+        <v>0.7240543119109759</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2844291540040942</v>
       </c>
       <c r="M20">
-        <v>1.871805563262114</v>
+        <v>0.2625012005772192</v>
       </c>
       <c r="N20">
-        <v>0.4032748168107361</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.801805423543556</v>
       </c>
       <c r="P20">
-        <v>1.180810382793084</v>
+        <v>0.4160471228105393</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.021109074247008</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.18659818474697</v>
+        <v>1.933901183226766</v>
       </c>
       <c r="C21">
-        <v>0.2540826206994495</v>
+        <v>0.28466830063266</v>
       </c>
       <c r="D21">
-        <v>0.3209142999761951</v>
+        <v>0.3208737032343265</v>
       </c>
       <c r="E21">
-        <v>0.07838007309634065</v>
+        <v>0.07121797999249679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.472168608114146</v>
+        <v>1.296980128242637</v>
       </c>
       <c r="H21">
-        <v>5.536816303219894E-07</v>
+        <v>1.064113302362557E-06</v>
       </c>
       <c r="I21">
-        <v>0.001831634436634033</v>
+        <v>0.002109706532714029</v>
       </c>
       <c r="J21">
-        <v>0.8941651085478668</v>
+        <v>0.6093183312237045</v>
       </c>
       <c r="K21">
-        <v>0.9675351537094627</v>
+        <v>0.7382113544385973</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2797338751150207</v>
       </c>
       <c r="M21">
-        <v>2.119357911371139</v>
+        <v>0.2802365590489586</v>
       </c>
       <c r="N21">
-        <v>0.4693171020546743</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.999116762339611</v>
       </c>
       <c r="P21">
-        <v>1.166432386526274</v>
+        <v>0.4804905590996356</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.971538315972964</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.351393142798656</v>
+        <v>2.062378879806545</v>
       </c>
       <c r="C22">
-        <v>0.2731697760270606</v>
+        <v>0.2995946963839771</v>
       </c>
       <c r="D22">
-        <v>0.3457250556217559</v>
+        <v>0.3454564005970582</v>
       </c>
       <c r="E22">
-        <v>0.08399499896828999</v>
+        <v>0.07682529679769345</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.549333994943169</v>
+        <v>1.42060461917859</v>
       </c>
       <c r="H22">
-        <v>0.0001280797823142166</v>
+        <v>0.0001300711520848541</v>
       </c>
       <c r="I22">
-        <v>0.001410456009116601</v>
+        <v>0.001709022563883167</v>
       </c>
       <c r="J22">
-        <v>0.9271602876794418</v>
+        <v>0.5361686079744743</v>
       </c>
       <c r="K22">
-        <v>1.005909039544733</v>
+        <v>0.7437819911109358</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2754127006328631</v>
       </c>
       <c r="M22">
-        <v>2.279688584523541</v>
+        <v>0.2907819481268916</v>
       </c>
       <c r="N22">
-        <v>0.5028999046054849</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.123617520734172</v>
       </c>
       <c r="P22">
-        <v>1.154791222690911</v>
+        <v>0.5126072207099952</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9373170211499584</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.267507387397643</v>
+        <v>1.999864977832715</v>
       </c>
       <c r="C23">
-        <v>0.2620354525581803</v>
+        <v>0.2919207963357309</v>
       </c>
       <c r="D23">
-        <v>0.3324649977646885</v>
+        <v>0.3323321609550334</v>
       </c>
       <c r="E23">
-        <v>0.08114642245585912</v>
+        <v>0.07382447276641813</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.51260515900114</v>
+        <v>1.347976090445314</v>
       </c>
       <c r="H23">
-        <v>2.490976592284255E-05</v>
+        <v>3.654569187405698E-05</v>
       </c>
       <c r="I23">
-        <v>0.001280382839079053</v>
+        <v>0.001518340006645857</v>
       </c>
       <c r="J23">
-        <v>0.9117862186037087</v>
+        <v>0.5907705405482062</v>
       </c>
       <c r="K23">
-        <v>0.988741486195245</v>
+        <v>0.7463609259504125</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2796247240816001</v>
       </c>
       <c r="M23">
-        <v>2.195419244442434</v>
+        <v>0.2873787448555589</v>
       </c>
       <c r="N23">
-        <v>0.4847868054145579</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.062666317586206</v>
       </c>
       <c r="P23">
-        <v>1.163814256286976</v>
+        <v>0.4955945111092888</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9594901784488314</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.944018358476455</v>
+        <v>1.743018549774888</v>
       </c>
       <c r="C24">
-        <v>0.2222252068519879</v>
+        <v>0.2577394386988772</v>
       </c>
       <c r="D24">
-        <v>0.2828171116555751</v>
+        <v>0.2830633410073062</v>
       </c>
       <c r="E24">
-        <v>0.07020617982617239</v>
+        <v>0.06317912901652889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.368357586818178</v>
+        <v>1.134696689854664</v>
       </c>
       <c r="H24">
-        <v>0.0003829237072043856</v>
+        <v>0.000230343814536349</v>
       </c>
       <c r="I24">
-        <v>0.002192847268116971</v>
+        <v>0.002015669990528934</v>
       </c>
       <c r="J24">
-        <v>0.8510579810783838</v>
+        <v>0.7296002286211376</v>
       </c>
       <c r="K24">
-        <v>0.9192006637608188</v>
+        <v>0.7356817963868281</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2888144397935051</v>
       </c>
       <c r="M24">
-        <v>1.875867597313487</v>
+        <v>0.2668302206632021</v>
       </c>
       <c r="N24">
-        <v>0.4168150652521661</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.805569569513153</v>
       </c>
       <c r="P24">
-        <v>1.194487874098179</v>
+        <v>0.4298763075815231</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.030515751162802</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.596641345182746</v>
+        <v>1.44014469900776</v>
       </c>
       <c r="C25">
-        <v>0.1808019921064385</v>
+        <v>0.2078840611959833</v>
       </c>
       <c r="D25">
-        <v>0.2303095723252255</v>
+        <v>0.2307247661481853</v>
       </c>
       <c r="E25">
-        <v>0.0585622437360982</v>
+        <v>0.05324485327787265</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.217101735695564</v>
+        <v>1.018253090850294</v>
       </c>
       <c r="H25">
-        <v>0.002217918683359965</v>
+        <v>0.001599640759475385</v>
       </c>
       <c r="I25">
-        <v>0.00497014395530293</v>
+        <v>0.003941026349984611</v>
       </c>
       <c r="J25">
-        <v>0.7879412356443964</v>
+        <v>0.6961323762869824</v>
       </c>
       <c r="K25">
-        <v>0.8460341738650072</v>
+        <v>0.6931757649572106</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.287278160913317</v>
       </c>
       <c r="M25">
-        <v>1.534404017481592</v>
+        <v>0.2348471554239779</v>
       </c>
       <c r="N25">
-        <v>0.3440634180018094</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.483641839830284</v>
       </c>
       <c r="P25">
-        <v>1.229867881717013</v>
+        <v>0.3560709372960247</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.084068776831685</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
